--- a/Resources/Total_Qty_Calculation.xlsx
+++ b/Resources/Total_Qty_Calculation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="214">
   <si>
     <t>Line Item</t>
   </si>
@@ -209,9 +209,6 @@
     <t>SMT BGA</t>
   </si>
   <si>
-    <t>SMT IP</t>
-  </si>
-  <si>
     <t>SMT CP</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
     <t>C0402C562K3RACTU</t>
   </si>
   <si>
-    <t>C1210C226K8RAC</t>
-  </si>
-  <si>
     <t>C0402C331K4RACTU</t>
   </si>
   <si>
@@ -617,9 +611,6 @@
     <t>Part notes for 5</t>
   </si>
   <si>
-    <t>Part notes for 6</t>
-  </si>
-  <si>
     <t>Part notes for 7</t>
   </si>
   <si>
@@ -638,10 +629,34 @@
     <t>Description for line item 5</t>
   </si>
   <si>
-    <t>Description for line item 6</t>
-  </si>
-  <si>
     <t>Description for line item 7</t>
+  </si>
+  <si>
+    <t>Target Price</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0.000001</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>50.85</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1262,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1304,6 +1319,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2273,7 +2292,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2281,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q235"/>
+  <dimension ref="A1:R234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2294,19 +2313,19 @@
     <col min="3" max="3" width="42.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="6" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="24" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15" style="6" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="24" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2329,313 +2348,315 @@
         <v>50</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1">
+    <row r="2" spans="1:17" s="6" customFormat="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="12">
-        <v>10</v>
+        <v>199</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F2" s="22"/>
-      <c r="G2" s="13">
-        <v>0</v>
+      <c r="G2" s="25" t="s">
+        <v>211</v>
       </c>
       <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>187</v>
+        <v>1</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="13"/>
+      <c r="M2" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="N2" s="13"/>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="12">
-        <v>15</v>
+        <v>200</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F3" s="22"/>
-      <c r="G3" s="13">
-        <v>10</v>
+      <c r="G3" s="25" t="s">
+        <v>206</v>
       </c>
       <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="13"/>
+      <c r="M3" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="N3" s="13"/>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="13"/>
+      <c r="P3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="12">
-        <v>20</v>
+        <v>201</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="13">
-        <v>0</v>
+      <c r="G4" s="25" t="s">
+        <v>211</v>
       </c>
       <c r="H4" s="13">
-        <v>15</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>186</v>
+        <v>3</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>207</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="13"/>
+        <v>187</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="N4" s="13"/>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="13"/>
+      <c r="P4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="12">
-        <v>25</v>
+        <v>202</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>209</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F5" s="22"/>
-      <c r="G5" s="13">
-        <v>15</v>
+      <c r="G5" s="25" t="s">
+        <v>207</v>
       </c>
       <c r="H5" s="13">
-        <v>20</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>186</v>
+        <v>4</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>208</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="M5" s="13"/>
+        <v>188</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="N5" s="13"/>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="13"/>
+      <c r="P5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="12">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="13">
-        <v>10</v>
-      </c>
       <c r="H6" s="13">
-        <v>50</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>186</v>
+        <v>5</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>212</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="M6" s="13"/>
+        <v>189</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="N6" s="13"/>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="13"/>
+      <c r="P6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="12">
-        <v>10</v>
+        <v>204</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="13">
-        <v>20.290029000000001</v>
+      <c r="G7" s="25" t="s">
+        <v>206</v>
       </c>
       <c r="H7" s="13">
-        <v>50</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>186</v>
+        <v>6</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="M7" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="N7" s="13"/>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="13"/>
+      <c r="P7" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="12">
-        <v>10</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="13">
-        <v>10</v>
-      </c>
-      <c r="H8" s="13">
-        <v>50.850093999999999</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8" s="13"/>
+    <row r="8" spans="1:17" s="4" customFormat="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="13"/>
+      <c r="P8" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1">
+    <row r="9" spans="1:17" s="4" customFormat="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
@@ -2644,17 +2665,18 @@
       <c r="F9" s="5"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="13"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="13"/>
+      <c r="P9" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="4" customFormat="1">
+    <row r="10" spans="1:17" s="4" customFormat="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
@@ -2663,17 +2685,18 @@
       <c r="F10" s="5"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="13"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="13"/>
+      <c r="P10" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1">
+    <row r="11" spans="1:17" s="4" customFormat="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
@@ -2682,17 +2705,18 @@
       <c r="F11" s="5"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="13"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="13"/>
+      <c r="P11" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="4" customFormat="1">
+    <row r="12" spans="1:17" s="4" customFormat="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
@@ -2701,17 +2725,18 @@
       <c r="F12" s="5"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="13"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="13"/>
+      <c r="P12" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="4" customFormat="1">
+    <row r="13" spans="1:17" s="4" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
@@ -2720,17 +2745,18 @@
       <c r="F13" s="5"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="13"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="13"/>
+      <c r="P13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="4" customFormat="1">
+    <row r="14" spans="1:17" s="4" customFormat="1">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
@@ -2739,17 +2765,18 @@
       <c r="F14" s="5"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="13"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="13"/>
+      <c r="P14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1">
+    <row r="15" spans="1:17" s="4" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5"/>
@@ -2758,17 +2785,18 @@
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="13"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="13"/>
+      <c r="P15" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1">
+    <row r="16" spans="1:17" s="4" customFormat="1">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
@@ -2777,17 +2805,18 @@
       <c r="F16" s="5"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="13"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="13"/>
+      <c r="P16" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:16" s="4" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
@@ -2796,17 +2825,18 @@
       <c r="F17" s="5"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="13"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="13"/>
+      <c r="P17" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:16" s="4" customFormat="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
@@ -2815,17 +2845,18 @@
       <c r="F18" s="5"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="13"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="13"/>
+      <c r="P18" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:16" s="4" customFormat="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
@@ -2834,17 +2865,18 @@
       <c r="F19" s="5"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="13"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="13"/>
+      <c r="P19" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:16" s="4" customFormat="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
@@ -2853,17 +2885,18 @@
       <c r="F20" s="5"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="13"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="13"/>
+      <c r="P20" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:16" s="4" customFormat="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
@@ -2872,17 +2905,18 @@
       <c r="F21" s="5"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="13"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="13"/>
+      <c r="P21" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:16" s="4" customFormat="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
@@ -2891,17 +2925,18 @@
       <c r="F22" s="5"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="13"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="13"/>
+      <c r="P22" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:16" s="4" customFormat="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
@@ -2910,17 +2945,18 @@
       <c r="F23" s="5"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="13"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="13"/>
+      <c r="P23" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:16" s="4" customFormat="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
@@ -2929,17 +2965,18 @@
       <c r="F24" s="5"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="13"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="13"/>
+      <c r="P24" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:16" s="4" customFormat="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
@@ -2948,17 +2985,18 @@
       <c r="F25" s="5"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="13"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="13"/>
+      <c r="P25" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:16" s="4" customFormat="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
@@ -2967,17 +3005,18 @@
       <c r="F26" s="5"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="13"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="13"/>
+      <c r="P26" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:16" s="4" customFormat="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
@@ -2986,17 +3025,18 @@
       <c r="F27" s="5"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="13"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="13"/>
+      <c r="P27" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:16" s="4" customFormat="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
@@ -3005,17 +3045,18 @@
       <c r="F28" s="5"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="13"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="13"/>
+      <c r="P28" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:16" s="4" customFormat="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
@@ -3024,17 +3065,18 @@
       <c r="F29" s="5"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="13"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="13"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="13"/>
+      <c r="P29" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:16" s="4" customFormat="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
@@ -3043,17 +3085,18 @@
       <c r="F30" s="5"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="13"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="13"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="13"/>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="13"/>
+      <c r="P30" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1">
+    <row r="31" spans="1:16" s="4" customFormat="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
@@ -3062,17 +3105,18 @@
       <c r="F31" s="5"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="13"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="13"/>
+      <c r="P31" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="4" customFormat="1">
+    <row r="32" spans="1:16" s="4" customFormat="1">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
@@ -3081,17 +3125,18 @@
       <c r="F32" s="5"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="13"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="13"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="13"/>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="13"/>
+      <c r="P32" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="4" customFormat="1">
+    <row r="33" spans="1:16" s="4" customFormat="1">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
@@ -3100,17 +3145,18 @@
       <c r="F33" s="5"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="13"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="13"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="13"/>
+      <c r="P33" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="4" customFormat="1">
+    <row r="34" spans="1:16" s="4" customFormat="1">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
@@ -3119,17 +3165,18 @@
       <c r="F34" s="5"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="13"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="13"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="13"/>
+      <c r="P34" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="4" customFormat="1">
+    <row r="35" spans="1:16" s="4" customFormat="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
@@ -3138,17 +3185,18 @@
       <c r="F35" s="5"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="13"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="13"/>
+      <c r="P35" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="4" customFormat="1">
+    <row r="36" spans="1:16" s="4" customFormat="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
@@ -3157,17 +3205,18 @@
       <c r="F36" s="5"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="5"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="13"/>
+      <c r="M36" s="5"/>
       <c r="N36" s="13"/>
-      <c r="O36" s="4" t="s">
+      <c r="O36" s="13"/>
+      <c r="P36" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="4" customFormat="1">
+    <row r="37" spans="1:16" s="4" customFormat="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="5"/>
@@ -3176,17 +3225,18 @@
       <c r="F37" s="5"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="13"/>
+      <c r="M37" s="5"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="4" t="s">
+      <c r="O37" s="13"/>
+      <c r="P37" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="4" customFormat="1">
+    <row r="38" spans="1:16" s="4" customFormat="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
@@ -3195,17 +3245,18 @@
       <c r="F38" s="5"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="5"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="13"/>
+      <c r="M38" s="5"/>
       <c r="N38" s="13"/>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="13"/>
+      <c r="P38" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="4" customFormat="1">
+    <row r="39" spans="1:16" s="4" customFormat="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
@@ -3214,17 +3265,18 @@
       <c r="F39" s="5"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="5"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="13"/>
+      <c r="M39" s="5"/>
       <c r="N39" s="13"/>
-      <c r="O39" s="4" t="s">
+      <c r="O39" s="13"/>
+      <c r="P39" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="4" customFormat="1">
+    <row r="40" spans="1:16" s="4" customFormat="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
@@ -3233,17 +3285,18 @@
       <c r="F40" s="5"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="5"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="13"/>
+      <c r="M40" s="5"/>
       <c r="N40" s="13"/>
-      <c r="O40" s="4" t="s">
+      <c r="O40" s="13"/>
+      <c r="P40" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="4" customFormat="1">
+    <row r="41" spans="1:16" s="4" customFormat="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
@@ -3252,17 +3305,18 @@
       <c r="F41" s="5"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="5"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="13"/>
+      <c r="M41" s="5"/>
       <c r="N41" s="13"/>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="13"/>
+      <c r="P41" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="4" customFormat="1">
+    <row r="42" spans="1:16" s="4" customFormat="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
@@ -3271,17 +3325,18 @@
       <c r="F42" s="5"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="5"/>
+      <c r="I42" s="13"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="13"/>
+      <c r="M42" s="5"/>
       <c r="N42" s="13"/>
-      <c r="O42" s="4" t="s">
+      <c r="O42" s="13"/>
+      <c r="P42" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="4" customFormat="1">
+    <row r="43" spans="1:16" s="4" customFormat="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="5"/>
@@ -3290,17 +3345,18 @@
       <c r="F43" s="5"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="5"/>
+      <c r="I43" s="13"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="13"/>
+      <c r="M43" s="5"/>
       <c r="N43" s="13"/>
-      <c r="O43" s="4" t="s">
+      <c r="O43" s="13"/>
+      <c r="P43" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="4" customFormat="1">
+    <row r="44" spans="1:16" s="4" customFormat="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="5"/>
@@ -3309,17 +3365,18 @@
       <c r="F44" s="5"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="5"/>
+      <c r="I44" s="13"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="13"/>
+      <c r="M44" s="5"/>
       <c r="N44" s="13"/>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="13"/>
+      <c r="P44" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="4" customFormat="1">
+    <row r="45" spans="1:16" s="4" customFormat="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="5"/>
@@ -3328,17 +3385,18 @@
       <c r="F45" s="5"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="5"/>
+      <c r="I45" s="13"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="13"/>
+      <c r="M45" s="5"/>
       <c r="N45" s="13"/>
-      <c r="O45" s="4" t="s">
+      <c r="O45" s="13"/>
+      <c r="P45" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="4" customFormat="1">
+    <row r="46" spans="1:16" s="4" customFormat="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="5"/>
@@ -3347,17 +3405,18 @@
       <c r="F46" s="5"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="5"/>
+      <c r="I46" s="13"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="13"/>
+      <c r="M46" s="5"/>
       <c r="N46" s="13"/>
-      <c r="O46" s="4" t="s">
+      <c r="O46" s="13"/>
+      <c r="P46" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="4" customFormat="1">
+    <row r="47" spans="1:16" s="4" customFormat="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="5"/>
@@ -3366,17 +3425,18 @@
       <c r="F47" s="5"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="5"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="13"/>
+      <c r="M47" s="5"/>
       <c r="N47" s="13"/>
-      <c r="O47" s="4" t="s">
+      <c r="O47" s="13"/>
+      <c r="P47" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="4" customFormat="1">
+    <row r="48" spans="1:16" s="4" customFormat="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="5"/>
@@ -3385,17 +3445,18 @@
       <c r="F48" s="5"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="5"/>
+      <c r="I48" s="13"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="13"/>
+      <c r="M48" s="5"/>
       <c r="N48" s="13"/>
-      <c r="O48" s="4" t="s">
+      <c r="O48" s="13"/>
+      <c r="P48" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="4" customFormat="1">
+    <row r="49" spans="1:16" s="4" customFormat="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
@@ -3404,17 +3465,18 @@
       <c r="F49" s="5"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="5"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="13"/>
+      <c r="M49" s="5"/>
       <c r="N49" s="13"/>
-      <c r="O49" s="4" t="s">
+      <c r="O49" s="13"/>
+      <c r="P49" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="4" customFormat="1">
+    <row r="50" spans="1:16" s="4" customFormat="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="5"/>
@@ -3423,17 +3485,18 @@
       <c r="F50" s="5"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="5"/>
+      <c r="I50" s="13"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="13"/>
+      <c r="M50" s="5"/>
       <c r="N50" s="13"/>
-      <c r="O50" s="4" t="s">
+      <c r="O50" s="13"/>
+      <c r="P50" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="4" customFormat="1">
+    <row r="51" spans="1:16" s="4" customFormat="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="5"/>
@@ -3442,17 +3505,18 @@
       <c r="F51" s="5"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="5"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="13"/>
+      <c r="M51" s="5"/>
       <c r="N51" s="13"/>
-      <c r="O51" s="4" t="s">
+      <c r="O51" s="13"/>
+      <c r="P51" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="4" customFormat="1">
+    <row r="52" spans="1:16" s="4" customFormat="1">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="5"/>
@@ -3461,17 +3525,18 @@
       <c r="F52" s="5"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="13"/>
+      <c r="M52" s="5"/>
       <c r="N52" s="13"/>
-      <c r="O52" s="4" t="s">
+      <c r="O52" s="13"/>
+      <c r="P52" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="4" customFormat="1">
+    <row r="53" spans="1:16" s="4" customFormat="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="5"/>
@@ -3480,17 +3545,18 @@
       <c r="F53" s="5"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="5"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="13"/>
+      <c r="M53" s="5"/>
       <c r="N53" s="13"/>
-      <c r="O53" s="4" t="s">
+      <c r="O53" s="13"/>
+      <c r="P53" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="4" customFormat="1">
+    <row r="54" spans="1:16" s="4" customFormat="1">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="5"/>
@@ -3499,17 +3565,18 @@
       <c r="F54" s="5"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="13"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="13"/>
+      <c r="M54" s="5"/>
       <c r="N54" s="13"/>
-      <c r="O54" s="4" t="s">
+      <c r="O54" s="13"/>
+      <c r="P54" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="4" customFormat="1">
+    <row r="55" spans="1:16" s="4" customFormat="1">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="5"/>
@@ -3518,17 +3585,18 @@
       <c r="F55" s="5"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="5"/>
+      <c r="I55" s="13"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="13"/>
+      <c r="M55" s="5"/>
       <c r="N55" s="13"/>
-      <c r="O55" s="4" t="s">
+      <c r="O55" s="13"/>
+      <c r="P55" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="4" customFormat="1">
+    <row r="56" spans="1:16" s="4" customFormat="1">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="5"/>
@@ -3537,17 +3605,18 @@
       <c r="F56" s="5"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
-      <c r="I56" s="5"/>
+      <c r="I56" s="13"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="13"/>
+      <c r="M56" s="5"/>
       <c r="N56" s="13"/>
-      <c r="O56" s="4" t="s">
+      <c r="O56" s="13"/>
+      <c r="P56" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="4" customFormat="1">
+    <row r="57" spans="1:16" s="4" customFormat="1">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="5"/>
@@ -3556,17 +3625,18 @@
       <c r="F57" s="5"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
-      <c r="I57" s="5"/>
+      <c r="I57" s="13"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="13"/>
+      <c r="M57" s="5"/>
       <c r="N57" s="13"/>
-      <c r="O57" s="4" t="s">
+      <c r="O57" s="13"/>
+      <c r="P57" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="4" customFormat="1">
+    <row r="58" spans="1:16" s="4" customFormat="1">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="5"/>
@@ -3575,17 +3645,18 @@
       <c r="F58" s="5"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
-      <c r="I58" s="5"/>
+      <c r="I58" s="13"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="13"/>
+      <c r="M58" s="5"/>
       <c r="N58" s="13"/>
-      <c r="O58" s="4" t="s">
+      <c r="O58" s="13"/>
+      <c r="P58" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="4" customFormat="1">
+    <row r="59" spans="1:16" s="4" customFormat="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="5"/>
@@ -3594,17 +3665,18 @@
       <c r="F59" s="5"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
-      <c r="I59" s="5"/>
+      <c r="I59" s="13"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="13"/>
+      <c r="M59" s="5"/>
       <c r="N59" s="13"/>
-      <c r="O59" s="4" t="s">
+      <c r="O59" s="13"/>
+      <c r="P59" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="4" customFormat="1">
+    <row r="60" spans="1:16" s="4" customFormat="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="5"/>
@@ -3613,17 +3685,18 @@
       <c r="F60" s="5"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="5"/>
+      <c r="I60" s="13"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="13"/>
+      <c r="M60" s="5"/>
       <c r="N60" s="13"/>
-      <c r="O60" s="4" t="s">
+      <c r="O60" s="13"/>
+      <c r="P60" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="4" customFormat="1">
+    <row r="61" spans="1:16" s="4" customFormat="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="5"/>
@@ -3632,17 +3705,18 @@
       <c r="F61" s="5"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="5"/>
+      <c r="I61" s="13"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="13"/>
+      <c r="M61" s="5"/>
       <c r="N61" s="13"/>
-      <c r="O61" s="4" t="s">
+      <c r="O61" s="13"/>
+      <c r="P61" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="4" customFormat="1">
+    <row r="62" spans="1:16" s="4" customFormat="1">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="5"/>
@@ -3651,17 +3725,18 @@
       <c r="F62" s="5"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
-      <c r="I62" s="5"/>
+      <c r="I62" s="13"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="13"/>
+      <c r="M62" s="5"/>
       <c r="N62" s="13"/>
-      <c r="O62" s="4" t="s">
+      <c r="O62" s="13"/>
+      <c r="P62" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1">
+    <row r="63" spans="1:16" s="4" customFormat="1">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="5"/>
@@ -3670,17 +3745,18 @@
       <c r="F63" s="5"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="5"/>
+      <c r="I63" s="13"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="13"/>
+      <c r="M63" s="5"/>
       <c r="N63" s="13"/>
-      <c r="O63" s="4" t="s">
+      <c r="O63" s="13"/>
+      <c r="P63" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1">
+    <row r="64" spans="1:16" s="4" customFormat="1">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="5"/>
@@ -3689,17 +3765,18 @@
       <c r="F64" s="5"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
-      <c r="I64" s="5"/>
+      <c r="I64" s="13"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="13"/>
+      <c r="M64" s="5"/>
       <c r="N64" s="13"/>
-      <c r="O64" s="4" t="s">
+      <c r="O64" s="13"/>
+      <c r="P64" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="4" customFormat="1">
+    <row r="65" spans="1:16" s="4" customFormat="1">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="5"/>
@@ -3708,17 +3785,18 @@
       <c r="F65" s="5"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
-      <c r="I65" s="5"/>
+      <c r="I65" s="13"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="13"/>
+      <c r="M65" s="5"/>
       <c r="N65" s="13"/>
-      <c r="O65" s="4" t="s">
+      <c r="O65" s="13"/>
+      <c r="P65" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1">
+    <row r="66" spans="1:16" s="4" customFormat="1">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="5"/>
@@ -3727,17 +3805,18 @@
       <c r="F66" s="5"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="5"/>
+      <c r="I66" s="13"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="13"/>
+      <c r="M66" s="5"/>
       <c r="N66" s="13"/>
-      <c r="O66" s="4" t="s">
+      <c r="O66" s="13"/>
+      <c r="P66" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="4" customFormat="1">
+    <row r="67" spans="1:16" s="4" customFormat="1">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="5"/>
@@ -3746,17 +3825,18 @@
       <c r="F67" s="5"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
-      <c r="I67" s="5"/>
+      <c r="I67" s="13"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="13"/>
+      <c r="M67" s="5"/>
       <c r="N67" s="13"/>
-      <c r="O67" s="4" t="s">
+      <c r="O67" s="13"/>
+      <c r="P67" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="4" customFormat="1">
+    <row r="68" spans="1:16" s="4" customFormat="1">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="5"/>
@@ -3765,17 +3845,18 @@
       <c r="F68" s="5"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
-      <c r="I68" s="5"/>
+      <c r="I68" s="13"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="13"/>
+      <c r="M68" s="5"/>
       <c r="N68" s="13"/>
-      <c r="O68" s="4" t="s">
+      <c r="O68" s="13"/>
+      <c r="P68" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="4" customFormat="1">
+    <row r="69" spans="1:16" s="4" customFormat="1">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="5"/>
@@ -3784,17 +3865,18 @@
       <c r="F69" s="5"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
-      <c r="I69" s="5"/>
+      <c r="I69" s="13"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="13"/>
+      <c r="M69" s="5"/>
       <c r="N69" s="13"/>
-      <c r="O69" s="4" t="s">
+      <c r="O69" s="13"/>
+      <c r="P69" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="4" customFormat="1">
+    <row r="70" spans="1:16" s="4" customFormat="1">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="5"/>
@@ -3803,17 +3885,18 @@
       <c r="F70" s="5"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
-      <c r="I70" s="5"/>
+      <c r="I70" s="13"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="13"/>
+      <c r="M70" s="5"/>
       <c r="N70" s="13"/>
-      <c r="O70" s="4" t="s">
+      <c r="O70" s="13"/>
+      <c r="P70" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="4" customFormat="1">
+    <row r="71" spans="1:16" s="4" customFormat="1">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="5"/>
@@ -3822,17 +3905,18 @@
       <c r="F71" s="5"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
-      <c r="I71" s="5"/>
+      <c r="I71" s="13"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="13"/>
+      <c r="M71" s="5"/>
       <c r="N71" s="13"/>
-      <c r="O71" s="4" t="s">
+      <c r="O71" s="13"/>
+      <c r="P71" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="4" customFormat="1">
+    <row r="72" spans="1:16" s="4" customFormat="1">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="5"/>
@@ -3841,17 +3925,18 @@
       <c r="F72" s="5"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
-      <c r="I72" s="5"/>
+      <c r="I72" s="13"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="13"/>
+      <c r="M72" s="5"/>
       <c r="N72" s="13"/>
-      <c r="O72" s="4" t="s">
+      <c r="O72" s="13"/>
+      <c r="P72" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="4" customFormat="1">
+    <row r="73" spans="1:16" s="4" customFormat="1">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="5"/>
@@ -3860,17 +3945,18 @@
       <c r="F73" s="5"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
-      <c r="I73" s="5"/>
+      <c r="I73" s="13"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="13"/>
+      <c r="M73" s="5"/>
       <c r="N73" s="13"/>
-      <c r="O73" s="4" t="s">
+      <c r="O73" s="13"/>
+      <c r="P73" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="4" customFormat="1">
+    <row r="74" spans="1:16" s="4" customFormat="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="5"/>
@@ -3879,17 +3965,18 @@
       <c r="F74" s="5"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
-      <c r="I74" s="5"/>
+      <c r="I74" s="13"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="13"/>
+      <c r="M74" s="5"/>
       <c r="N74" s="13"/>
-      <c r="O74" s="4" t="s">
+      <c r="O74" s="13"/>
+      <c r="P74" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="4" customFormat="1">
+    <row r="75" spans="1:16" s="4" customFormat="1">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="5"/>
@@ -3898,17 +3985,18 @@
       <c r="F75" s="5"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
-      <c r="I75" s="5"/>
+      <c r="I75" s="13"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="13"/>
+      <c r="M75" s="5"/>
       <c r="N75" s="13"/>
-      <c r="O75" s="4" t="s">
+      <c r="O75" s="13"/>
+      <c r="P75" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="4" customFormat="1">
+    <row r="76" spans="1:16" s="4" customFormat="1">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="5"/>
@@ -3917,17 +4005,18 @@
       <c r="F76" s="5"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
-      <c r="I76" s="5"/>
+      <c r="I76" s="13"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="13"/>
+      <c r="M76" s="5"/>
       <c r="N76" s="13"/>
-      <c r="O76" s="4" t="s">
+      <c r="O76" s="13"/>
+      <c r="P76" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="4" customFormat="1">
+    <row r="77" spans="1:16" s="4" customFormat="1">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="5"/>
@@ -3936,17 +4025,18 @@
       <c r="F77" s="5"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
-      <c r="I77" s="5"/>
+      <c r="I77" s="13"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="13"/>
+      <c r="M77" s="5"/>
       <c r="N77" s="13"/>
-      <c r="O77" s="4" t="s">
+      <c r="O77" s="13"/>
+      <c r="P77" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="4" customFormat="1">
+    <row r="78" spans="1:16" s="4" customFormat="1">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="5"/>
@@ -3955,17 +4045,18 @@
       <c r="F78" s="5"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
-      <c r="I78" s="5"/>
+      <c r="I78" s="13"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="13"/>
+      <c r="M78" s="5"/>
       <c r="N78" s="13"/>
-      <c r="O78" s="4" t="s">
+      <c r="O78" s="13"/>
+      <c r="P78" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="4" customFormat="1">
+    <row r="79" spans="1:16" s="4" customFormat="1">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="5"/>
@@ -3974,17 +4065,18 @@
       <c r="F79" s="5"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
-      <c r="I79" s="5"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="13"/>
+      <c r="M79" s="5"/>
       <c r="N79" s="13"/>
-      <c r="O79" s="4" t="s">
+      <c r="O79" s="13"/>
+      <c r="P79" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="4" customFormat="1">
+    <row r="80" spans="1:16" s="4" customFormat="1">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="5"/>
@@ -3993,17 +4085,18 @@
       <c r="F80" s="5"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
-      <c r="I80" s="5"/>
+      <c r="I80" s="13"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="13"/>
+      <c r="M80" s="5"/>
       <c r="N80" s="13"/>
-      <c r="O80" s="4" t="s">
+      <c r="O80" s="13"/>
+      <c r="P80" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="4" customFormat="1">
+    <row r="81" spans="1:16" s="4" customFormat="1">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="5"/>
@@ -4012,17 +4105,18 @@
       <c r="F81" s="5"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
-      <c r="I81" s="5"/>
+      <c r="I81" s="13"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="13"/>
+      <c r="M81" s="5"/>
       <c r="N81" s="13"/>
-      <c r="O81" s="4" t="s">
+      <c r="O81" s="13"/>
+      <c r="P81" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="4" customFormat="1">
+    <row r="82" spans="1:16" s="4" customFormat="1">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="5"/>
@@ -4031,17 +4125,18 @@
       <c r="F82" s="5"/>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
-      <c r="I82" s="5"/>
+      <c r="I82" s="13"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="13"/>
+      <c r="M82" s="5"/>
       <c r="N82" s="13"/>
-      <c r="O82" s="4" t="s">
+      <c r="O82" s="13"/>
+      <c r="P82" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="4" customFormat="1">
+    <row r="83" spans="1:16" s="4" customFormat="1">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="5"/>
@@ -4050,17 +4145,18 @@
       <c r="F83" s="5"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
-      <c r="I83" s="5"/>
+      <c r="I83" s="13"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="13"/>
+      <c r="M83" s="5"/>
       <c r="N83" s="13"/>
-      <c r="O83" s="4" t="s">
+      <c r="O83" s="13"/>
+      <c r="P83" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="4" customFormat="1">
+    <row r="84" spans="1:16" s="4" customFormat="1">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="5"/>
@@ -4069,17 +4165,18 @@
       <c r="F84" s="5"/>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
-      <c r="I84" s="5"/>
+      <c r="I84" s="13"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="13"/>
+      <c r="M84" s="5"/>
       <c r="N84" s="13"/>
-      <c r="O84" s="4" t="s">
+      <c r="O84" s="13"/>
+      <c r="P84" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="4" customFormat="1">
+    <row r="85" spans="1:16" s="4" customFormat="1">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="5"/>
@@ -4088,17 +4185,18 @@
       <c r="F85" s="5"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
-      <c r="I85" s="5"/>
+      <c r="I85" s="13"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="13"/>
+      <c r="M85" s="5"/>
       <c r="N85" s="13"/>
-      <c r="O85" s="4" t="s">
+      <c r="O85" s="13"/>
+      <c r="P85" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="4" customFormat="1">
+    <row r="86" spans="1:16" s="4" customFormat="1">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="5"/>
@@ -4107,17 +4205,18 @@
       <c r="F86" s="5"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
-      <c r="I86" s="5"/>
+      <c r="I86" s="13"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="13"/>
+      <c r="M86" s="5"/>
       <c r="N86" s="13"/>
-      <c r="O86" s="4" t="s">
+      <c r="O86" s="13"/>
+      <c r="P86" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="4" customFormat="1">
+    <row r="87" spans="1:16" s="4" customFormat="1">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="5"/>
@@ -4126,17 +4225,18 @@
       <c r="F87" s="5"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
-      <c r="I87" s="5"/>
+      <c r="I87" s="13"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="13"/>
+      <c r="M87" s="5"/>
       <c r="N87" s="13"/>
-      <c r="O87" s="4" t="s">
+      <c r="O87" s="13"/>
+      <c r="P87" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="4" customFormat="1">
+    <row r="88" spans="1:16" s="4" customFormat="1">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="5"/>
@@ -4145,17 +4245,18 @@
       <c r="F88" s="5"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
-      <c r="I88" s="5"/>
+      <c r="I88" s="13"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="13"/>
+      <c r="M88" s="5"/>
       <c r="N88" s="13"/>
-      <c r="O88" s="4" t="s">
+      <c r="O88" s="13"/>
+      <c r="P88" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="4" customFormat="1">
+    <row r="89" spans="1:16" s="4" customFormat="1">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="5"/>
@@ -4164,17 +4265,18 @@
       <c r="F89" s="5"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
-      <c r="I89" s="5"/>
+      <c r="I89" s="13"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="13"/>
+      <c r="M89" s="5"/>
       <c r="N89" s="13"/>
-      <c r="O89" s="4" t="s">
+      <c r="O89" s="13"/>
+      <c r="P89" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="4" customFormat="1">
+    <row r="90" spans="1:16" s="4" customFormat="1">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="5"/>
@@ -4183,17 +4285,18 @@
       <c r="F90" s="5"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
-      <c r="I90" s="5"/>
+      <c r="I90" s="13"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="13"/>
+      <c r="M90" s="5"/>
       <c r="N90" s="13"/>
-      <c r="O90" s="4" t="s">
+      <c r="O90" s="13"/>
+      <c r="P90" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="4" customFormat="1">
+    <row r="91" spans="1:16" s="4" customFormat="1">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="5"/>
@@ -4202,17 +4305,18 @@
       <c r="F91" s="5"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
-      <c r="I91" s="5"/>
+      <c r="I91" s="13"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="13"/>
+      <c r="M91" s="5"/>
       <c r="N91" s="13"/>
-      <c r="O91" s="4" t="s">
+      <c r="O91" s="13"/>
+      <c r="P91" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="4" customFormat="1">
+    <row r="92" spans="1:16" s="4" customFormat="1">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="5"/>
@@ -4221,17 +4325,18 @@
       <c r="F92" s="5"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
-      <c r="I92" s="5"/>
+      <c r="I92" s="13"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="13"/>
+      <c r="M92" s="5"/>
       <c r="N92" s="13"/>
-      <c r="O92" s="4" t="s">
+      <c r="O92" s="13"/>
+      <c r="P92" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="4" customFormat="1">
+    <row r="93" spans="1:16" s="4" customFormat="1">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="5"/>
@@ -4240,17 +4345,18 @@
       <c r="F93" s="5"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
-      <c r="I93" s="5"/>
+      <c r="I93" s="13"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="13"/>
+      <c r="M93" s="5"/>
       <c r="N93" s="13"/>
-      <c r="O93" s="4" t="s">
+      <c r="O93" s="13"/>
+      <c r="P93" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="4" customFormat="1">
+    <row r="94" spans="1:16" s="4" customFormat="1">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="5"/>
@@ -4259,17 +4365,18 @@
       <c r="F94" s="5"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
-      <c r="I94" s="5"/>
+      <c r="I94" s="13"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="13"/>
+      <c r="M94" s="5"/>
       <c r="N94" s="13"/>
-      <c r="O94" s="4" t="s">
+      <c r="O94" s="13"/>
+      <c r="P94" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="4" customFormat="1">
+    <row r="95" spans="1:16" s="4" customFormat="1">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="5"/>
@@ -4278,17 +4385,18 @@
       <c r="F95" s="5"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
-      <c r="I95" s="5"/>
+      <c r="I95" s="13"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="13"/>
+      <c r="M95" s="5"/>
       <c r="N95" s="13"/>
-      <c r="O95" s="4" t="s">
+      <c r="O95" s="13"/>
+      <c r="P95" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="4" customFormat="1">
+    <row r="96" spans="1:16" s="4" customFormat="1">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="5"/>
@@ -4297,17 +4405,18 @@
       <c r="F96" s="5"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
-      <c r="I96" s="5"/>
+      <c r="I96" s="13"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="13"/>
+      <c r="M96" s="5"/>
       <c r="N96" s="13"/>
-      <c r="O96" s="4" t="s">
+      <c r="O96" s="13"/>
+      <c r="P96" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="4" customFormat="1">
+    <row r="97" spans="1:16" s="4" customFormat="1">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="5"/>
@@ -4316,17 +4425,18 @@
       <c r="F97" s="5"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
-      <c r="I97" s="5"/>
+      <c r="I97" s="13"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="13"/>
+      <c r="M97" s="5"/>
       <c r="N97" s="13"/>
-      <c r="O97" s="4" t="s">
+      <c r="O97" s="13"/>
+      <c r="P97" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="4" customFormat="1">
+    <row r="98" spans="1:16" s="4" customFormat="1">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="5"/>
@@ -4335,17 +4445,18 @@
       <c r="F98" s="5"/>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
-      <c r="I98" s="5"/>
+      <c r="I98" s="13"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="13"/>
+      <c r="M98" s="5"/>
       <c r="N98" s="13"/>
-      <c r="O98" s="4" t="s">
+      <c r="O98" s="13"/>
+      <c r="P98" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="4" customFormat="1">
+    <row r="99" spans="1:16" s="4" customFormat="1">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="5"/>
@@ -4354,17 +4465,18 @@
       <c r="F99" s="5"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
-      <c r="I99" s="5"/>
+      <c r="I99" s="13"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
-      <c r="M99" s="13"/>
+      <c r="M99" s="5"/>
       <c r="N99" s="13"/>
-      <c r="O99" s="4" t="s">
+      <c r="O99" s="13"/>
+      <c r="P99" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="4" customFormat="1">
+    <row r="100" spans="1:16" s="4" customFormat="1">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="5"/>
@@ -4373,17 +4485,18 @@
       <c r="F100" s="5"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
-      <c r="I100" s="5"/>
+      <c r="I100" s="13"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
-      <c r="M100" s="13"/>
+      <c r="M100" s="5"/>
       <c r="N100" s="13"/>
-      <c r="O100" s="4" t="s">
+      <c r="O100" s="13"/>
+      <c r="P100" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="4" customFormat="1">
+    <row r="101" spans="1:16" s="4" customFormat="1">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="5"/>
@@ -4392,17 +4505,18 @@
       <c r="F101" s="5"/>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
-      <c r="I101" s="5"/>
+      <c r="I101" s="13"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="13"/>
+      <c r="M101" s="5"/>
       <c r="N101" s="13"/>
-      <c r="O101" s="4" t="s">
+      <c r="O101" s="13"/>
+      <c r="P101" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="4" customFormat="1">
+    <row r="102" spans="1:16" s="4" customFormat="1">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="5"/>
@@ -4411,17 +4525,18 @@
       <c r="F102" s="5"/>
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
-      <c r="I102" s="5"/>
+      <c r="I102" s="13"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="13"/>
+      <c r="M102" s="5"/>
       <c r="N102" s="13"/>
-      <c r="O102" s="4" t="s">
+      <c r="O102" s="13"/>
+      <c r="P102" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="4" customFormat="1">
+    <row r="103" spans="1:16" s="4" customFormat="1">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="5"/>
@@ -4430,17 +4545,18 @@
       <c r="F103" s="5"/>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
-      <c r="I103" s="5"/>
+      <c r="I103" s="13"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
-      <c r="M103" s="13"/>
+      <c r="M103" s="5"/>
       <c r="N103" s="13"/>
-      <c r="O103" s="4" t="s">
+      <c r="O103" s="13"/>
+      <c r="P103" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="4" customFormat="1">
+    <row r="104" spans="1:16" s="4" customFormat="1">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="5"/>
@@ -4449,17 +4565,18 @@
       <c r="F104" s="5"/>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
-      <c r="I104" s="5"/>
+      <c r="I104" s="13"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="13"/>
+      <c r="M104" s="5"/>
       <c r="N104" s="13"/>
-      <c r="O104" s="4" t="s">
+      <c r="O104" s="13"/>
+      <c r="P104" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="4" customFormat="1">
+    <row r="105" spans="1:16" s="4" customFormat="1">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="5"/>
@@ -4468,17 +4585,18 @@
       <c r="F105" s="5"/>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
-      <c r="I105" s="5"/>
+      <c r="I105" s="13"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
-      <c r="M105" s="13"/>
+      <c r="M105" s="5"/>
       <c r="N105" s="13"/>
-      <c r="O105" s="4" t="s">
+      <c r="O105" s="13"/>
+      <c r="P105" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="4" customFormat="1">
+    <row r="106" spans="1:16" s="4" customFormat="1">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="5"/>
@@ -4487,17 +4605,18 @@
       <c r="F106" s="5"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
-      <c r="I106" s="5"/>
+      <c r="I106" s="13"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="13"/>
+      <c r="M106" s="5"/>
       <c r="N106" s="13"/>
-      <c r="O106" s="4" t="s">
+      <c r="O106" s="13"/>
+      <c r="P106" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="4" customFormat="1">
+    <row r="107" spans="1:16" s="4" customFormat="1">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="5"/>
@@ -4506,17 +4625,18 @@
       <c r="F107" s="5"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
-      <c r="I107" s="5"/>
+      <c r="I107" s="13"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="13"/>
+      <c r="M107" s="5"/>
       <c r="N107" s="13"/>
-      <c r="O107" s="4" t="s">
+      <c r="O107" s="13"/>
+      <c r="P107" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="4" customFormat="1">
+    <row r="108" spans="1:16" s="4" customFormat="1">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="5"/>
@@ -4525,17 +4645,18 @@
       <c r="F108" s="5"/>
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
-      <c r="I108" s="5"/>
+      <c r="I108" s="13"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
-      <c r="M108" s="13"/>
+      <c r="M108" s="5"/>
       <c r="N108" s="13"/>
-      <c r="O108" s="4" t="s">
+      <c r="O108" s="13"/>
+      <c r="P108" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:15" s="4" customFormat="1">
+    <row r="109" spans="1:16" s="4" customFormat="1">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="5"/>
@@ -4544,17 +4665,18 @@
       <c r="F109" s="5"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
-      <c r="I109" s="5"/>
+      <c r="I109" s="13"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="13"/>
+      <c r="M109" s="5"/>
       <c r="N109" s="13"/>
-      <c r="O109" s="4" t="s">
+      <c r="O109" s="13"/>
+      <c r="P109" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="4" customFormat="1">
+    <row r="110" spans="1:16" s="4" customFormat="1">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="5"/>
@@ -4563,17 +4685,18 @@
       <c r="F110" s="5"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
-      <c r="I110" s="5"/>
+      <c r="I110" s="13"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
-      <c r="M110" s="13"/>
+      <c r="M110" s="5"/>
       <c r="N110" s="13"/>
-      <c r="O110" s="4" t="s">
+      <c r="O110" s="13"/>
+      <c r="P110" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="4" customFormat="1">
+    <row r="111" spans="1:16" s="4" customFormat="1">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="5"/>
@@ -4582,17 +4705,18 @@
       <c r="F111" s="5"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
-      <c r="I111" s="5"/>
+      <c r="I111" s="13"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="13"/>
+      <c r="M111" s="5"/>
       <c r="N111" s="13"/>
-      <c r="O111" s="4" t="s">
+      <c r="O111" s="13"/>
+      <c r="P111" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="4" customFormat="1">
+    <row r="112" spans="1:16" s="4" customFormat="1">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="5"/>
@@ -4601,17 +4725,18 @@
       <c r="F112" s="5"/>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
-      <c r="I112" s="5"/>
+      <c r="I112" s="13"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
-      <c r="M112" s="13"/>
+      <c r="M112" s="5"/>
       <c r="N112" s="13"/>
-      <c r="O112" s="4" t="s">
+      <c r="O112" s="13"/>
+      <c r="P112" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="4" customFormat="1">
+    <row r="113" spans="1:16" s="4" customFormat="1">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="5"/>
@@ -4620,17 +4745,18 @@
       <c r="F113" s="5"/>
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
-      <c r="I113" s="5"/>
+      <c r="I113" s="13"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="13"/>
+      <c r="M113" s="5"/>
       <c r="N113" s="13"/>
-      <c r="O113" s="4" t="s">
+      <c r="O113" s="13"/>
+      <c r="P113" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="4" customFormat="1">
+    <row r="114" spans="1:16" s="4" customFormat="1">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="5"/>
@@ -4639,17 +4765,18 @@
       <c r="F114" s="5"/>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
-      <c r="I114" s="5"/>
+      <c r="I114" s="13"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
-      <c r="M114" s="13"/>
+      <c r="M114" s="5"/>
       <c r="N114" s="13"/>
-      <c r="O114" s="4" t="s">
+      <c r="O114" s="13"/>
+      <c r="P114" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="4" customFormat="1">
+    <row r="115" spans="1:16" s="4" customFormat="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="5"/>
@@ -4658,17 +4785,18 @@
       <c r="F115" s="5"/>
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
-      <c r="I115" s="5"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
-      <c r="M115" s="13"/>
+      <c r="M115" s="5"/>
       <c r="N115" s="13"/>
-      <c r="O115" s="4" t="s">
+      <c r="O115" s="13"/>
+      <c r="P115" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="1:15" s="4" customFormat="1">
+    <row r="116" spans="1:16" s="4" customFormat="1">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="5"/>
@@ -4677,17 +4805,18 @@
       <c r="F116" s="5"/>
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
-      <c r="I116" s="5"/>
+      <c r="I116" s="13"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
-      <c r="M116" s="13"/>
+      <c r="M116" s="5"/>
       <c r="N116" s="13"/>
-      <c r="O116" s="4" t="s">
+      <c r="O116" s="13"/>
+      <c r="P116" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="4" customFormat="1">
+    <row r="117" spans="1:16" s="4" customFormat="1">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="5"/>
@@ -4696,17 +4825,18 @@
       <c r="F117" s="5"/>
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
-      <c r="I117" s="5"/>
+      <c r="I117" s="13"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="13"/>
+      <c r="M117" s="5"/>
       <c r="N117" s="13"/>
-      <c r="O117" s="4" t="s">
+      <c r="O117" s="13"/>
+      <c r="P117" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="4" customFormat="1">
+    <row r="118" spans="1:16" s="4" customFormat="1">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="5"/>
@@ -4715,17 +4845,18 @@
       <c r="F118" s="5"/>
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="5"/>
+      <c r="I118" s="13"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
-      <c r="M118" s="13"/>
+      <c r="M118" s="5"/>
       <c r="N118" s="13"/>
-      <c r="O118" s="4" t="s">
+      <c r="O118" s="13"/>
+      <c r="P118" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="4" customFormat="1">
+    <row r="119" spans="1:16" s="4" customFormat="1">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="5"/>
@@ -4734,17 +4865,18 @@
       <c r="F119" s="5"/>
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
-      <c r="I119" s="5"/>
+      <c r="I119" s="13"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="13"/>
+      <c r="M119" s="5"/>
       <c r="N119" s="13"/>
-      <c r="O119" s="4" t="s">
+      <c r="O119" s="13"/>
+      <c r="P119" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="4" customFormat="1">
+    <row r="120" spans="1:16" s="4" customFormat="1">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="5"/>
@@ -4753,17 +4885,18 @@
       <c r="F120" s="5"/>
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
-      <c r="I120" s="5"/>
+      <c r="I120" s="13"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="13"/>
+      <c r="M120" s="5"/>
       <c r="N120" s="13"/>
-      <c r="O120" s="4" t="s">
+      <c r="O120" s="13"/>
+      <c r="P120" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="4" customFormat="1">
+    <row r="121" spans="1:16" s="4" customFormat="1">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="5"/>
@@ -4772,17 +4905,18 @@
       <c r="F121" s="5"/>
       <c r="G121" s="13"/>
       <c r="H121" s="13"/>
-      <c r="I121" s="5"/>
+      <c r="I121" s="13"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="13"/>
+      <c r="M121" s="5"/>
       <c r="N121" s="13"/>
-      <c r="O121" s="4" t="s">
+      <c r="O121" s="13"/>
+      <c r="P121" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="4" customFormat="1">
+    <row r="122" spans="1:16" s="4" customFormat="1">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="5"/>
@@ -4791,17 +4925,18 @@
       <c r="F122" s="5"/>
       <c r="G122" s="13"/>
       <c r="H122" s="13"/>
-      <c r="I122" s="5"/>
+      <c r="I122" s="13"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="13"/>
+      <c r="M122" s="5"/>
       <c r="N122" s="13"/>
-      <c r="O122" s="4" t="s">
+      <c r="O122" s="13"/>
+      <c r="P122" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:15" s="4" customFormat="1">
+    <row r="123" spans="1:16" s="4" customFormat="1">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="5"/>
@@ -4810,17 +4945,18 @@
       <c r="F123" s="5"/>
       <c r="G123" s="13"/>
       <c r="H123" s="13"/>
-      <c r="I123" s="5"/>
+      <c r="I123" s="13"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="13"/>
+      <c r="M123" s="5"/>
       <c r="N123" s="13"/>
-      <c r="O123" s="4" t="s">
+      <c r="O123" s="13"/>
+      <c r="P123" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="4" customFormat="1">
+    <row r="124" spans="1:16" s="4" customFormat="1">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="5"/>
@@ -4829,17 +4965,18 @@
       <c r="F124" s="5"/>
       <c r="G124" s="13"/>
       <c r="H124" s="13"/>
-      <c r="I124" s="5"/>
+      <c r="I124" s="13"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="13"/>
+      <c r="M124" s="5"/>
       <c r="N124" s="13"/>
-      <c r="O124" s="4" t="s">
+      <c r="O124" s="13"/>
+      <c r="P124" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="4" customFormat="1">
+    <row r="125" spans="1:16" s="4" customFormat="1">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="5"/>
@@ -4848,17 +4985,18 @@
       <c r="F125" s="5"/>
       <c r="G125" s="13"/>
       <c r="H125" s="13"/>
-      <c r="I125" s="5"/>
+      <c r="I125" s="13"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
-      <c r="M125" s="13"/>
+      <c r="M125" s="5"/>
       <c r="N125" s="13"/>
-      <c r="O125" s="4" t="s">
+      <c r="O125" s="13"/>
+      <c r="P125" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:15" s="4" customFormat="1">
+    <row r="126" spans="1:16" s="4" customFormat="1">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="5"/>
@@ -4867,17 +5005,18 @@
       <c r="F126" s="5"/>
       <c r="G126" s="13"/>
       <c r="H126" s="13"/>
-      <c r="I126" s="5"/>
+      <c r="I126" s="13"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
-      <c r="M126" s="13"/>
+      <c r="M126" s="5"/>
       <c r="N126" s="13"/>
-      <c r="O126" s="4" t="s">
+      <c r="O126" s="13"/>
+      <c r="P126" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:15" s="4" customFormat="1">
+    <row r="127" spans="1:16" s="4" customFormat="1">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="5"/>
@@ -4886,17 +5025,18 @@
       <c r="F127" s="5"/>
       <c r="G127" s="13"/>
       <c r="H127" s="13"/>
-      <c r="I127" s="5"/>
+      <c r="I127" s="13"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="13"/>
+      <c r="M127" s="5"/>
       <c r="N127" s="13"/>
-      <c r="O127" s="4" t="s">
+      <c r="O127" s="13"/>
+      <c r="P127" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:15" s="4" customFormat="1">
+    <row r="128" spans="1:16" s="4" customFormat="1">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="5"/>
@@ -4905,17 +5045,15 @@
       <c r="F128" s="5"/>
       <c r="G128" s="13"/>
       <c r="H128" s="13"/>
-      <c r="I128" s="5"/>
+      <c r="I128" s="13"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
-      <c r="M128" s="13"/>
+      <c r="M128" s="5"/>
       <c r="N128" s="13"/>
-      <c r="O128" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" s="4" customFormat="1">
+      <c r="O128" s="13"/>
+    </row>
+    <row r="129" spans="1:15" s="4" customFormat="1">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="5"/>
@@ -4924,14 +5062,15 @@
       <c r="F129" s="5"/>
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
-      <c r="I129" s="5"/>
+      <c r="I129" s="13"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
-      <c r="M129" s="13"/>
+      <c r="M129" s="5"/>
       <c r="N129" s="13"/>
-    </row>
-    <row r="130" spans="1:14" s="4" customFormat="1">
+      <c r="O129" s="13"/>
+    </row>
+    <row r="130" spans="1:15" s="4" customFormat="1">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="5"/>
@@ -4940,14 +5079,15 @@
       <c r="F130" s="5"/>
       <c r="G130" s="13"/>
       <c r="H130" s="13"/>
-      <c r="I130" s="5"/>
+      <c r="I130" s="13"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="13"/>
+      <c r="M130" s="5"/>
       <c r="N130" s="13"/>
-    </row>
-    <row r="131" spans="1:14" s="4" customFormat="1">
+      <c r="O130" s="13"/>
+    </row>
+    <row r="131" spans="1:15" s="4" customFormat="1">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="5"/>
@@ -4956,14 +5096,15 @@
       <c r="F131" s="5"/>
       <c r="G131" s="13"/>
       <c r="H131" s="13"/>
-      <c r="I131" s="5"/>
+      <c r="I131" s="13"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="13"/>
+      <c r="M131" s="5"/>
       <c r="N131" s="13"/>
-    </row>
-    <row r="132" spans="1:14" s="4" customFormat="1">
+      <c r="O131" s="13"/>
+    </row>
+    <row r="132" spans="1:15" s="4" customFormat="1">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="5"/>
@@ -4972,14 +5113,15 @@
       <c r="F132" s="5"/>
       <c r="G132" s="13"/>
       <c r="H132" s="13"/>
-      <c r="I132" s="5"/>
+      <c r="I132" s="13"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
-      <c r="M132" s="13"/>
+      <c r="M132" s="5"/>
       <c r="N132" s="13"/>
-    </row>
-    <row r="133" spans="1:14" s="4" customFormat="1">
+      <c r="O132" s="13"/>
+    </row>
+    <row r="133" spans="1:15" s="4" customFormat="1">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="5"/>
@@ -4988,14 +5130,15 @@
       <c r="F133" s="5"/>
       <c r="G133" s="13"/>
       <c r="H133" s="13"/>
-      <c r="I133" s="5"/>
+      <c r="I133" s="13"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
-      <c r="M133" s="13"/>
+      <c r="M133" s="5"/>
       <c r="N133" s="13"/>
-    </row>
-    <row r="134" spans="1:14" s="4" customFormat="1">
+      <c r="O133" s="13"/>
+    </row>
+    <row r="134" spans="1:15" s="4" customFormat="1">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="5"/>
@@ -5004,14 +5147,15 @@
       <c r="F134" s="5"/>
       <c r="G134" s="13"/>
       <c r="H134" s="13"/>
-      <c r="I134" s="5"/>
+      <c r="I134" s="13"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
-      <c r="M134" s="13"/>
+      <c r="M134" s="5"/>
       <c r="N134" s="13"/>
-    </row>
-    <row r="135" spans="1:14" s="4" customFormat="1">
+      <c r="O134" s="13"/>
+    </row>
+    <row r="135" spans="1:15" s="4" customFormat="1">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="5"/>
@@ -5020,14 +5164,15 @@
       <c r="F135" s="5"/>
       <c r="G135" s="13"/>
       <c r="H135" s="13"/>
-      <c r="I135" s="5"/>
+      <c r="I135" s="13"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="13"/>
+      <c r="M135" s="5"/>
       <c r="N135" s="13"/>
-    </row>
-    <row r="136" spans="1:14" s="4" customFormat="1">
+      <c r="O135" s="13"/>
+    </row>
+    <row r="136" spans="1:15" s="4" customFormat="1">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="5"/>
@@ -5036,14 +5181,15 @@
       <c r="F136" s="5"/>
       <c r="G136" s="13"/>
       <c r="H136" s="13"/>
-      <c r="I136" s="5"/>
+      <c r="I136" s="13"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
-      <c r="M136" s="13"/>
+      <c r="M136" s="5"/>
       <c r="N136" s="13"/>
-    </row>
-    <row r="137" spans="1:14" s="4" customFormat="1">
+      <c r="O136" s="13"/>
+    </row>
+    <row r="137" spans="1:15" s="4" customFormat="1">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="5"/>
@@ -5052,14 +5198,15 @@
       <c r="F137" s="5"/>
       <c r="G137" s="13"/>
       <c r="H137" s="13"/>
-      <c r="I137" s="5"/>
+      <c r="I137" s="13"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="13"/>
+      <c r="M137" s="5"/>
       <c r="N137" s="13"/>
-    </row>
-    <row r="138" spans="1:14" s="4" customFormat="1">
+      <c r="O137" s="13"/>
+    </row>
+    <row r="138" spans="1:15" s="4" customFormat="1">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="5"/>
@@ -5068,14 +5215,15 @@
       <c r="F138" s="5"/>
       <c r="G138" s="13"/>
       <c r="H138" s="13"/>
-      <c r="I138" s="5"/>
+      <c r="I138" s="13"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
-      <c r="M138" s="13"/>
+      <c r="M138" s="5"/>
       <c r="N138" s="13"/>
-    </row>
-    <row r="139" spans="1:14" s="4" customFormat="1">
+      <c r="O138" s="13"/>
+    </row>
+    <row r="139" spans="1:15" s="4" customFormat="1">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="5"/>
@@ -5084,14 +5232,15 @@
       <c r="F139" s="5"/>
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
-      <c r="I139" s="5"/>
+      <c r="I139" s="13"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
-      <c r="M139" s="13"/>
+      <c r="M139" s="5"/>
       <c r="N139" s="13"/>
-    </row>
-    <row r="140" spans="1:14" s="4" customFormat="1">
+      <c r="O139" s="13"/>
+    </row>
+    <row r="140" spans="1:15" s="4" customFormat="1">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="5"/>
@@ -5100,14 +5249,15 @@
       <c r="F140" s="5"/>
       <c r="G140" s="13"/>
       <c r="H140" s="13"/>
-      <c r="I140" s="5"/>
+      <c r="I140" s="13"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
-      <c r="M140" s="13"/>
+      <c r="M140" s="5"/>
       <c r="N140" s="13"/>
-    </row>
-    <row r="141" spans="1:14" s="4" customFormat="1">
+      <c r="O140" s="13"/>
+    </row>
+    <row r="141" spans="1:15" s="4" customFormat="1">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="5"/>
@@ -5116,14 +5266,15 @@
       <c r="F141" s="5"/>
       <c r="G141" s="13"/>
       <c r="H141" s="13"/>
-      <c r="I141" s="5"/>
+      <c r="I141" s="13"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="13"/>
+      <c r="M141" s="5"/>
       <c r="N141" s="13"/>
-    </row>
-    <row r="142" spans="1:14" s="4" customFormat="1">
+      <c r="O141" s="13"/>
+    </row>
+    <row r="142" spans="1:15" s="4" customFormat="1">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="5"/>
@@ -5132,14 +5283,15 @@
       <c r="F142" s="5"/>
       <c r="G142" s="13"/>
       <c r="H142" s="13"/>
-      <c r="I142" s="5"/>
+      <c r="I142" s="13"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
-      <c r="M142" s="13"/>
+      <c r="M142" s="5"/>
       <c r="N142" s="13"/>
-    </row>
-    <row r="143" spans="1:14" s="4" customFormat="1">
+      <c r="O142" s="13"/>
+    </row>
+    <row r="143" spans="1:15" s="4" customFormat="1">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="5"/>
@@ -5148,14 +5300,15 @@
       <c r="F143" s="5"/>
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
-      <c r="I143" s="5"/>
+      <c r="I143" s="13"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
-      <c r="M143" s="13"/>
+      <c r="M143" s="5"/>
       <c r="N143" s="13"/>
-    </row>
-    <row r="144" spans="1:14" s="4" customFormat="1">
+      <c r="O143" s="13"/>
+    </row>
+    <row r="144" spans="1:15" s="4" customFormat="1">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="5"/>
@@ -5164,14 +5317,15 @@
       <c r="F144" s="5"/>
       <c r="G144" s="13"/>
       <c r="H144" s="13"/>
-      <c r="I144" s="5"/>
+      <c r="I144" s="13"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
-      <c r="M144" s="13"/>
+      <c r="M144" s="5"/>
       <c r="N144" s="13"/>
-    </row>
-    <row r="145" spans="1:14" s="4" customFormat="1">
+      <c r="O144" s="13"/>
+    </row>
+    <row r="145" spans="1:15" s="4" customFormat="1">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="5"/>
@@ -5180,14 +5334,15 @@
       <c r="F145" s="5"/>
       <c r="G145" s="13"/>
       <c r="H145" s="13"/>
-      <c r="I145" s="5"/>
+      <c r="I145" s="13"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
-      <c r="M145" s="13"/>
+      <c r="M145" s="5"/>
       <c r="N145" s="13"/>
-    </row>
-    <row r="146" spans="1:14" s="4" customFormat="1">
+      <c r="O145" s="13"/>
+    </row>
+    <row r="146" spans="1:15" s="4" customFormat="1">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="5"/>
@@ -5196,14 +5351,15 @@
       <c r="F146" s="5"/>
       <c r="G146" s="13"/>
       <c r="H146" s="13"/>
-      <c r="I146" s="5"/>
+      <c r="I146" s="13"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
-      <c r="M146" s="13"/>
+      <c r="M146" s="5"/>
       <c r="N146" s="13"/>
-    </row>
-    <row r="147" spans="1:14" s="4" customFormat="1">
+      <c r="O146" s="13"/>
+    </row>
+    <row r="147" spans="1:15" s="4" customFormat="1">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="5"/>
@@ -5212,14 +5368,15 @@
       <c r="F147" s="5"/>
       <c r="G147" s="13"/>
       <c r="H147" s="13"/>
-      <c r="I147" s="5"/>
+      <c r="I147" s="13"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="13"/>
+      <c r="M147" s="5"/>
       <c r="N147" s="13"/>
-    </row>
-    <row r="148" spans="1:14" s="4" customFormat="1">
+      <c r="O147" s="13"/>
+    </row>
+    <row r="148" spans="1:15" s="4" customFormat="1">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="5"/>
@@ -5228,14 +5385,15 @@
       <c r="F148" s="5"/>
       <c r="G148" s="13"/>
       <c r="H148" s="13"/>
-      <c r="I148" s="5"/>
+      <c r="I148" s="13"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
-      <c r="M148" s="13"/>
+      <c r="M148" s="5"/>
       <c r="N148" s="13"/>
-    </row>
-    <row r="149" spans="1:14" s="4" customFormat="1">
+      <c r="O148" s="13"/>
+    </row>
+    <row r="149" spans="1:15" s="4" customFormat="1">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="5"/>
@@ -5244,14 +5402,15 @@
       <c r="F149" s="5"/>
       <c r="G149" s="13"/>
       <c r="H149" s="13"/>
-      <c r="I149" s="5"/>
+      <c r="I149" s="13"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
-      <c r="M149" s="13"/>
+      <c r="M149" s="5"/>
       <c r="N149" s="13"/>
-    </row>
-    <row r="150" spans="1:14" s="4" customFormat="1">
+      <c r="O149" s="13"/>
+    </row>
+    <row r="150" spans="1:15" s="4" customFormat="1">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="5"/>
@@ -5260,14 +5419,15 @@
       <c r="F150" s="5"/>
       <c r="G150" s="13"/>
       <c r="H150" s="13"/>
-      <c r="I150" s="5"/>
+      <c r="I150" s="13"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
-      <c r="M150" s="13"/>
+      <c r="M150" s="5"/>
       <c r="N150" s="13"/>
-    </row>
-    <row r="151" spans="1:14" s="4" customFormat="1">
+      <c r="O150" s="13"/>
+    </row>
+    <row r="151" spans="1:15" s="4" customFormat="1">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="5"/>
@@ -5276,14 +5436,15 @@
       <c r="F151" s="5"/>
       <c r="G151" s="13"/>
       <c r="H151" s="13"/>
-      <c r="I151" s="5"/>
+      <c r="I151" s="13"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="13"/>
+      <c r="M151" s="5"/>
       <c r="N151" s="13"/>
-    </row>
-    <row r="152" spans="1:14" s="4" customFormat="1">
+      <c r="O151" s="13"/>
+    </row>
+    <row r="152" spans="1:15" s="4" customFormat="1">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="5"/>
@@ -5292,14 +5453,15 @@
       <c r="F152" s="5"/>
       <c r="G152" s="13"/>
       <c r="H152" s="13"/>
-      <c r="I152" s="5"/>
+      <c r="I152" s="13"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
-      <c r="M152" s="13"/>
+      <c r="M152" s="5"/>
       <c r="N152" s="13"/>
-    </row>
-    <row r="153" spans="1:14" s="4" customFormat="1">
+      <c r="O152" s="13"/>
+    </row>
+    <row r="153" spans="1:15" s="4" customFormat="1">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="5"/>
@@ -5308,14 +5470,15 @@
       <c r="F153" s="5"/>
       <c r="G153" s="13"/>
       <c r="H153" s="13"/>
-      <c r="I153" s="5"/>
+      <c r="I153" s="13"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="13"/>
+      <c r="M153" s="5"/>
       <c r="N153" s="13"/>
-    </row>
-    <row r="154" spans="1:14" s="4" customFormat="1">
+      <c r="O153" s="13"/>
+    </row>
+    <row r="154" spans="1:15" s="4" customFormat="1">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="5"/>
@@ -5324,14 +5487,15 @@
       <c r="F154" s="5"/>
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
-      <c r="I154" s="5"/>
+      <c r="I154" s="13"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
-      <c r="M154" s="13"/>
+      <c r="M154" s="5"/>
       <c r="N154" s="13"/>
-    </row>
-    <row r="155" spans="1:14" s="4" customFormat="1">
+      <c r="O154" s="13"/>
+    </row>
+    <row r="155" spans="1:15" s="4" customFormat="1">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="5"/>
@@ -5340,14 +5504,15 @@
       <c r="F155" s="5"/>
       <c r="G155" s="13"/>
       <c r="H155" s="13"/>
-      <c r="I155" s="5"/>
+      <c r="I155" s="13"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
-      <c r="M155" s="13"/>
+      <c r="M155" s="5"/>
       <c r="N155" s="13"/>
-    </row>
-    <row r="156" spans="1:14" s="4" customFormat="1">
+      <c r="O155" s="13"/>
+    </row>
+    <row r="156" spans="1:15" s="4" customFormat="1">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="5"/>
@@ -5356,14 +5521,15 @@
       <c r="F156" s="5"/>
       <c r="G156" s="13"/>
       <c r="H156" s="13"/>
-      <c r="I156" s="5"/>
+      <c r="I156" s="13"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
-      <c r="M156" s="13"/>
+      <c r="M156" s="5"/>
       <c r="N156" s="13"/>
-    </row>
-    <row r="157" spans="1:14" s="4" customFormat="1">
+      <c r="O156" s="13"/>
+    </row>
+    <row r="157" spans="1:15" s="4" customFormat="1">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="5"/>
@@ -5372,14 +5538,15 @@
       <c r="F157" s="5"/>
       <c r="G157" s="13"/>
       <c r="H157" s="13"/>
-      <c r="I157" s="5"/>
+      <c r="I157" s="13"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
-      <c r="M157" s="13"/>
+      <c r="M157" s="5"/>
       <c r="N157" s="13"/>
-    </row>
-    <row r="158" spans="1:14" s="4" customFormat="1">
+      <c r="O157" s="13"/>
+    </row>
+    <row r="158" spans="1:15" s="4" customFormat="1">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="5"/>
@@ -5388,14 +5555,15 @@
       <c r="F158" s="5"/>
       <c r="G158" s="13"/>
       <c r="H158" s="13"/>
-      <c r="I158" s="5"/>
+      <c r="I158" s="13"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
-      <c r="M158" s="13"/>
+      <c r="M158" s="5"/>
       <c r="N158" s="13"/>
-    </row>
-    <row r="159" spans="1:14" s="4" customFormat="1">
+      <c r="O158" s="13"/>
+    </row>
+    <row r="159" spans="1:15" s="4" customFormat="1">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="5"/>
@@ -5404,14 +5572,15 @@
       <c r="F159" s="5"/>
       <c r="G159" s="13"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="5"/>
+      <c r="I159" s="13"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
-      <c r="M159" s="13"/>
+      <c r="M159" s="5"/>
       <c r="N159" s="13"/>
-    </row>
-    <row r="160" spans="1:14" s="4" customFormat="1">
+      <c r="O159" s="13"/>
+    </row>
+    <row r="160" spans="1:15" s="4" customFormat="1">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="5"/>
@@ -5420,14 +5589,15 @@
       <c r="F160" s="5"/>
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
-      <c r="I160" s="5"/>
+      <c r="I160" s="13"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
-      <c r="M160" s="13"/>
+      <c r="M160" s="5"/>
       <c r="N160" s="13"/>
-    </row>
-    <row r="161" spans="1:14" s="4" customFormat="1">
+      <c r="O160" s="13"/>
+    </row>
+    <row r="161" spans="1:15" s="4" customFormat="1">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="5"/>
@@ -5436,14 +5606,15 @@
       <c r="F161" s="5"/>
       <c r="G161" s="13"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="5"/>
+      <c r="I161" s="13"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
-      <c r="M161" s="13"/>
+      <c r="M161" s="5"/>
       <c r="N161" s="13"/>
-    </row>
-    <row r="162" spans="1:14" s="4" customFormat="1">
+      <c r="O161" s="13"/>
+    </row>
+    <row r="162" spans="1:15" s="4" customFormat="1">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="5"/>
@@ -5452,14 +5623,15 @@
       <c r="F162" s="5"/>
       <c r="G162" s="13"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="5"/>
+      <c r="I162" s="13"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
       <c r="L162" s="5"/>
-      <c r="M162" s="13"/>
+      <c r="M162" s="5"/>
       <c r="N162" s="13"/>
-    </row>
-    <row r="163" spans="1:14" s="4" customFormat="1">
+      <c r="O162" s="13"/>
+    </row>
+    <row r="163" spans="1:15" s="4" customFormat="1">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="5"/>
@@ -5468,14 +5640,15 @@
       <c r="F163" s="5"/>
       <c r="G163" s="13"/>
       <c r="H163" s="13"/>
-      <c r="I163" s="5"/>
+      <c r="I163" s="13"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
-      <c r="M163" s="13"/>
+      <c r="M163" s="5"/>
       <c r="N163" s="13"/>
-    </row>
-    <row r="164" spans="1:14" s="4" customFormat="1">
+      <c r="O163" s="13"/>
+    </row>
+    <row r="164" spans="1:15" s="4" customFormat="1">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="5"/>
@@ -5484,14 +5657,15 @@
       <c r="F164" s="5"/>
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="5"/>
+      <c r="I164" s="13"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
-      <c r="M164" s="13"/>
+      <c r="M164" s="5"/>
       <c r="N164" s="13"/>
-    </row>
-    <row r="165" spans="1:14" s="4" customFormat="1">
+      <c r="O164" s="13"/>
+    </row>
+    <row r="165" spans="1:15" s="4" customFormat="1">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="5"/>
@@ -5500,14 +5674,15 @@
       <c r="F165" s="5"/>
       <c r="G165" s="13"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="5"/>
+      <c r="I165" s="13"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
-      <c r="M165" s="13"/>
+      <c r="M165" s="5"/>
       <c r="N165" s="13"/>
-    </row>
-    <row r="166" spans="1:14" s="4" customFormat="1">
+      <c r="O165" s="13"/>
+    </row>
+    <row r="166" spans="1:15" s="4" customFormat="1">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="5"/>
@@ -5516,14 +5691,15 @@
       <c r="F166" s="5"/>
       <c r="G166" s="13"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="5"/>
+      <c r="I166" s="13"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
-      <c r="M166" s="13"/>
+      <c r="M166" s="5"/>
       <c r="N166" s="13"/>
-    </row>
-    <row r="167" spans="1:14" s="4" customFormat="1">
+      <c r="O166" s="13"/>
+    </row>
+    <row r="167" spans="1:15" s="4" customFormat="1">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="5"/>
@@ -5532,14 +5708,15 @@
       <c r="F167" s="5"/>
       <c r="G167" s="13"/>
       <c r="H167" s="13"/>
-      <c r="I167" s="5"/>
+      <c r="I167" s="13"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
       <c r="L167" s="5"/>
-      <c r="M167" s="13"/>
+      <c r="M167" s="5"/>
       <c r="N167" s="13"/>
-    </row>
-    <row r="168" spans="1:14" s="4" customFormat="1">
+      <c r="O167" s="13"/>
+    </row>
+    <row r="168" spans="1:15" s="4" customFormat="1">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="5"/>
@@ -5548,14 +5725,15 @@
       <c r="F168" s="5"/>
       <c r="G168" s="13"/>
       <c r="H168" s="13"/>
-      <c r="I168" s="5"/>
+      <c r="I168" s="13"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
-      <c r="M168" s="13"/>
+      <c r="M168" s="5"/>
       <c r="N168" s="13"/>
-    </row>
-    <row r="169" spans="1:14" s="4" customFormat="1">
+      <c r="O168" s="13"/>
+    </row>
+    <row r="169" spans="1:15" s="4" customFormat="1">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="5"/>
@@ -5564,14 +5742,15 @@
       <c r="F169" s="5"/>
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
-      <c r="I169" s="5"/>
+      <c r="I169" s="13"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
-      <c r="M169" s="13"/>
+      <c r="M169" s="5"/>
       <c r="N169" s="13"/>
-    </row>
-    <row r="170" spans="1:14" s="4" customFormat="1">
+      <c r="O169" s="13"/>
+    </row>
+    <row r="170" spans="1:15" s="4" customFormat="1">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="5"/>
@@ -5580,14 +5759,15 @@
       <c r="F170" s="5"/>
       <c r="G170" s="13"/>
       <c r="H170" s="13"/>
-      <c r="I170" s="5"/>
+      <c r="I170" s="13"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
-      <c r="M170" s="13"/>
+      <c r="M170" s="5"/>
       <c r="N170" s="13"/>
-    </row>
-    <row r="171" spans="1:14" s="4" customFormat="1">
+      <c r="O170" s="13"/>
+    </row>
+    <row r="171" spans="1:15" s="4" customFormat="1">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="5"/>
@@ -5596,14 +5776,15 @@
       <c r="F171" s="5"/>
       <c r="G171" s="13"/>
       <c r="H171" s="13"/>
-      <c r="I171" s="5"/>
+      <c r="I171" s="13"/>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
-      <c r="M171" s="13"/>
+      <c r="M171" s="5"/>
       <c r="N171" s="13"/>
-    </row>
-    <row r="172" spans="1:14" s="4" customFormat="1">
+      <c r="O171" s="13"/>
+    </row>
+    <row r="172" spans="1:15" s="4" customFormat="1">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="5"/>
@@ -5612,14 +5793,15 @@
       <c r="F172" s="5"/>
       <c r="G172" s="13"/>
       <c r="H172" s="13"/>
-      <c r="I172" s="5"/>
+      <c r="I172" s="13"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
-      <c r="M172" s="13"/>
+      <c r="M172" s="5"/>
       <c r="N172" s="13"/>
-    </row>
-    <row r="173" spans="1:14" s="4" customFormat="1">
+      <c r="O172" s="13"/>
+    </row>
+    <row r="173" spans="1:15" s="4" customFormat="1">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="5"/>
@@ -5628,14 +5810,15 @@
       <c r="F173" s="5"/>
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
-      <c r="I173" s="5"/>
+      <c r="I173" s="13"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
-      <c r="M173" s="13"/>
+      <c r="M173" s="5"/>
       <c r="N173" s="13"/>
-    </row>
-    <row r="174" spans="1:14" s="4" customFormat="1">
+      <c r="O173" s="13"/>
+    </row>
+    <row r="174" spans="1:15" s="4" customFormat="1">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="5"/>
@@ -5644,14 +5827,15 @@
       <c r="F174" s="5"/>
       <c r="G174" s="13"/>
       <c r="H174" s="13"/>
-      <c r="I174" s="5"/>
+      <c r="I174" s="13"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
-      <c r="M174" s="13"/>
+      <c r="M174" s="5"/>
       <c r="N174" s="13"/>
-    </row>
-    <row r="175" spans="1:14" s="4" customFormat="1">
+      <c r="O174" s="13"/>
+    </row>
+    <row r="175" spans="1:15" s="4" customFormat="1">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="5"/>
@@ -5660,14 +5844,15 @@
       <c r="F175" s="5"/>
       <c r="G175" s="13"/>
       <c r="H175" s="13"/>
-      <c r="I175" s="5"/>
+      <c r="I175" s="13"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
-      <c r="M175" s="13"/>
+      <c r="M175" s="5"/>
       <c r="N175" s="13"/>
-    </row>
-    <row r="176" spans="1:14" s="4" customFormat="1">
+      <c r="O175" s="13"/>
+    </row>
+    <row r="176" spans="1:15" s="4" customFormat="1">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="5"/>
@@ -5676,14 +5861,15 @@
       <c r="F176" s="5"/>
       <c r="G176" s="13"/>
       <c r="H176" s="13"/>
-      <c r="I176" s="5"/>
+      <c r="I176" s="13"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
       <c r="L176" s="5"/>
-      <c r="M176" s="13"/>
+      <c r="M176" s="5"/>
       <c r="N176" s="13"/>
-    </row>
-    <row r="177" spans="1:14" s="4" customFormat="1">
+      <c r="O176" s="13"/>
+    </row>
+    <row r="177" spans="1:15" s="4" customFormat="1">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="5"/>
@@ -5692,14 +5878,15 @@
       <c r="F177" s="5"/>
       <c r="G177" s="13"/>
       <c r="H177" s="13"/>
-      <c r="I177" s="5"/>
+      <c r="I177" s="13"/>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
       <c r="L177" s="5"/>
-      <c r="M177" s="13"/>
+      <c r="M177" s="5"/>
       <c r="N177" s="13"/>
-    </row>
-    <row r="178" spans="1:14" s="4" customFormat="1">
+      <c r="O177" s="13"/>
+    </row>
+    <row r="178" spans="1:15" s="4" customFormat="1">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="5"/>
@@ -5708,14 +5895,15 @@
       <c r="F178" s="5"/>
       <c r="G178" s="13"/>
       <c r="H178" s="13"/>
-      <c r="I178" s="5"/>
+      <c r="I178" s="13"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
-      <c r="M178" s="13"/>
+      <c r="M178" s="5"/>
       <c r="N178" s="13"/>
-    </row>
-    <row r="179" spans="1:14" s="4" customFormat="1">
+      <c r="O178" s="13"/>
+    </row>
+    <row r="179" spans="1:15" s="4" customFormat="1">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="5"/>
@@ -5724,14 +5912,15 @@
       <c r="F179" s="5"/>
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
-      <c r="I179" s="5"/>
+      <c r="I179" s="13"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
-      <c r="M179" s="13"/>
+      <c r="M179" s="5"/>
       <c r="N179" s="13"/>
-    </row>
-    <row r="180" spans="1:14" s="4" customFormat="1">
+      <c r="O179" s="13"/>
+    </row>
+    <row r="180" spans="1:15" s="4" customFormat="1">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="5"/>
@@ -5740,14 +5929,15 @@
       <c r="F180" s="5"/>
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
-      <c r="I180" s="5"/>
+      <c r="I180" s="13"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
-      <c r="M180" s="13"/>
+      <c r="M180" s="5"/>
       <c r="N180" s="13"/>
-    </row>
-    <row r="181" spans="1:14" s="4" customFormat="1">
+      <c r="O180" s="13"/>
+    </row>
+    <row r="181" spans="1:15" s="4" customFormat="1">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="5"/>
@@ -5756,14 +5946,15 @@
       <c r="F181" s="5"/>
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
-      <c r="I181" s="5"/>
+      <c r="I181" s="13"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
-      <c r="M181" s="13"/>
+      <c r="M181" s="5"/>
       <c r="N181" s="13"/>
-    </row>
-    <row r="182" spans="1:14" s="4" customFormat="1">
+      <c r="O181" s="13"/>
+    </row>
+    <row r="182" spans="1:15" s="4" customFormat="1">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="5"/>
@@ -5772,14 +5963,15 @@
       <c r="F182" s="5"/>
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
-      <c r="I182" s="5"/>
+      <c r="I182" s="13"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
-      <c r="M182" s="13"/>
+      <c r="M182" s="5"/>
       <c r="N182" s="13"/>
-    </row>
-    <row r="183" spans="1:14" s="4" customFormat="1">
+      <c r="O182" s="13"/>
+    </row>
+    <row r="183" spans="1:15" s="4" customFormat="1">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="5"/>
@@ -5788,14 +5980,15 @@
       <c r="F183" s="5"/>
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
-      <c r="I183" s="5"/>
+      <c r="I183" s="13"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
-      <c r="M183" s="13"/>
+      <c r="M183" s="5"/>
       <c r="N183" s="13"/>
-    </row>
-    <row r="184" spans="1:14" s="4" customFormat="1">
+      <c r="O183" s="13"/>
+    </row>
+    <row r="184" spans="1:15" s="4" customFormat="1">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="5"/>
@@ -5804,14 +5997,15 @@
       <c r="F184" s="5"/>
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
-      <c r="I184" s="5"/>
+      <c r="I184" s="13"/>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
-      <c r="M184" s="13"/>
+      <c r="M184" s="5"/>
       <c r="N184" s="13"/>
-    </row>
-    <row r="185" spans="1:14" s="4" customFormat="1">
+      <c r="O184" s="13"/>
+    </row>
+    <row r="185" spans="1:15" s="4" customFormat="1">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="5"/>
@@ -5820,14 +6014,15 @@
       <c r="F185" s="5"/>
       <c r="G185" s="13"/>
       <c r="H185" s="13"/>
-      <c r="I185" s="5"/>
+      <c r="I185" s="13"/>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
       <c r="L185" s="5"/>
-      <c r="M185" s="13"/>
+      <c r="M185" s="5"/>
       <c r="N185" s="13"/>
-    </row>
-    <row r="186" spans="1:14" s="4" customFormat="1">
+      <c r="O185" s="13"/>
+    </row>
+    <row r="186" spans="1:15" s="4" customFormat="1">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="5"/>
@@ -5836,14 +6031,15 @@
       <c r="F186" s="5"/>
       <c r="G186" s="13"/>
       <c r="H186" s="13"/>
-      <c r="I186" s="5"/>
+      <c r="I186" s="13"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
       <c r="L186" s="5"/>
-      <c r="M186" s="13"/>
+      <c r="M186" s="5"/>
       <c r="N186" s="13"/>
-    </row>
-    <row r="187" spans="1:14" s="4" customFormat="1">
+      <c r="O186" s="13"/>
+    </row>
+    <row r="187" spans="1:15" s="4" customFormat="1">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="5"/>
@@ -5852,14 +6048,15 @@
       <c r="F187" s="5"/>
       <c r="G187" s="13"/>
       <c r="H187" s="13"/>
-      <c r="I187" s="5"/>
+      <c r="I187" s="13"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
-      <c r="M187" s="13"/>
+      <c r="M187" s="5"/>
       <c r="N187" s="13"/>
-    </row>
-    <row r="188" spans="1:14" s="4" customFormat="1">
+      <c r="O187" s="13"/>
+    </row>
+    <row r="188" spans="1:15" s="4" customFormat="1">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="5"/>
@@ -5868,14 +6065,15 @@
       <c r="F188" s="5"/>
       <c r="G188" s="13"/>
       <c r="H188" s="13"/>
-      <c r="I188" s="5"/>
+      <c r="I188" s="13"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
       <c r="L188" s="5"/>
-      <c r="M188" s="13"/>
+      <c r="M188" s="5"/>
       <c r="N188" s="13"/>
-    </row>
-    <row r="189" spans="1:14" s="4" customFormat="1">
+      <c r="O188" s="13"/>
+    </row>
+    <row r="189" spans="1:15" s="4" customFormat="1">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="5"/>
@@ -5884,14 +6082,15 @@
       <c r="F189" s="5"/>
       <c r="G189" s="13"/>
       <c r="H189" s="13"/>
-      <c r="I189" s="5"/>
+      <c r="I189" s="13"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
-      <c r="M189" s="13"/>
+      <c r="M189" s="5"/>
       <c r="N189" s="13"/>
-    </row>
-    <row r="190" spans="1:14" s="4" customFormat="1">
+      <c r="O189" s="13"/>
+    </row>
+    <row r="190" spans="1:15" s="4" customFormat="1">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="5"/>
@@ -5900,14 +6099,15 @@
       <c r="F190" s="5"/>
       <c r="G190" s="13"/>
       <c r="H190" s="13"/>
-      <c r="I190" s="5"/>
+      <c r="I190" s="13"/>
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
-      <c r="M190" s="13"/>
+      <c r="M190" s="5"/>
       <c r="N190" s="13"/>
-    </row>
-    <row r="191" spans="1:14" s="4" customFormat="1">
+      <c r="O190" s="13"/>
+    </row>
+    <row r="191" spans="1:15" s="4" customFormat="1">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="5"/>
@@ -5916,14 +6116,15 @@
       <c r="F191" s="5"/>
       <c r="G191" s="13"/>
       <c r="H191" s="13"/>
-      <c r="I191" s="5"/>
+      <c r="I191" s="13"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
-      <c r="M191" s="13"/>
+      <c r="M191" s="5"/>
       <c r="N191" s="13"/>
-    </row>
-    <row r="192" spans="1:14" s="4" customFormat="1">
+      <c r="O191" s="13"/>
+    </row>
+    <row r="192" spans="1:15" s="4" customFormat="1">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="5"/>
@@ -5932,14 +6133,15 @@
       <c r="F192" s="5"/>
       <c r="G192" s="13"/>
       <c r="H192" s="13"/>
-      <c r="I192" s="5"/>
+      <c r="I192" s="13"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
       <c r="L192" s="5"/>
-      <c r="M192" s="13"/>
+      <c r="M192" s="5"/>
       <c r="N192" s="13"/>
-    </row>
-    <row r="193" spans="1:14" s="4" customFormat="1">
+      <c r="O192" s="13"/>
+    </row>
+    <row r="193" spans="1:15" s="4" customFormat="1">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="5"/>
@@ -5948,14 +6150,15 @@
       <c r="F193" s="5"/>
       <c r="G193" s="13"/>
       <c r="H193" s="13"/>
-      <c r="I193" s="5"/>
+      <c r="I193" s="13"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
-      <c r="M193" s="13"/>
+      <c r="M193" s="5"/>
       <c r="N193" s="13"/>
-    </row>
-    <row r="194" spans="1:14" s="4" customFormat="1">
+      <c r="O193" s="13"/>
+    </row>
+    <row r="194" spans="1:15" s="4" customFormat="1">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="5"/>
@@ -5964,14 +6167,15 @@
       <c r="F194" s="5"/>
       <c r="G194" s="13"/>
       <c r="H194" s="13"/>
-      <c r="I194" s="5"/>
+      <c r="I194" s="13"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
-      <c r="M194" s="13"/>
+      <c r="M194" s="5"/>
       <c r="N194" s="13"/>
-    </row>
-    <row r="195" spans="1:14" s="4" customFormat="1">
+      <c r="O194" s="13"/>
+    </row>
+    <row r="195" spans="1:15" s="4" customFormat="1">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="5"/>
@@ -5980,14 +6184,15 @@
       <c r="F195" s="5"/>
       <c r="G195" s="13"/>
       <c r="H195" s="13"/>
-      <c r="I195" s="5"/>
+      <c r="I195" s="13"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
       <c r="L195" s="5"/>
-      <c r="M195" s="13"/>
+      <c r="M195" s="5"/>
       <c r="N195" s="13"/>
-    </row>
-    <row r="196" spans="1:14" s="4" customFormat="1">
+      <c r="O195" s="13"/>
+    </row>
+    <row r="196" spans="1:15" s="4" customFormat="1">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="5"/>
@@ -5996,14 +6201,15 @@
       <c r="F196" s="5"/>
       <c r="G196" s="13"/>
       <c r="H196" s="13"/>
-      <c r="I196" s="5"/>
+      <c r="I196" s="13"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
-      <c r="M196" s="13"/>
+      <c r="M196" s="5"/>
       <c r="N196" s="13"/>
-    </row>
-    <row r="197" spans="1:14" s="4" customFormat="1">
+      <c r="O196" s="13"/>
+    </row>
+    <row r="197" spans="1:15" s="4" customFormat="1">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="5"/>
@@ -6012,14 +6218,15 @@
       <c r="F197" s="5"/>
       <c r="G197" s="13"/>
       <c r="H197" s="13"/>
-      <c r="I197" s="5"/>
+      <c r="I197" s="13"/>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
       <c r="L197" s="5"/>
-      <c r="M197" s="13"/>
+      <c r="M197" s="5"/>
       <c r="N197" s="13"/>
-    </row>
-    <row r="198" spans="1:14" s="4" customFormat="1">
+      <c r="O197" s="13"/>
+    </row>
+    <row r="198" spans="1:15" s="4" customFormat="1">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="5"/>
@@ -6028,14 +6235,15 @@
       <c r="F198" s="5"/>
       <c r="G198" s="13"/>
       <c r="H198" s="13"/>
-      <c r="I198" s="5"/>
+      <c r="I198" s="13"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
-      <c r="M198" s="13"/>
+      <c r="M198" s="5"/>
       <c r="N198" s="13"/>
-    </row>
-    <row r="199" spans="1:14" s="4" customFormat="1">
+      <c r="O198" s="13"/>
+    </row>
+    <row r="199" spans="1:15" s="4" customFormat="1">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="5"/>
@@ -6044,14 +6252,15 @@
       <c r="F199" s="5"/>
       <c r="G199" s="13"/>
       <c r="H199" s="13"/>
-      <c r="I199" s="5"/>
+      <c r="I199" s="13"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
-      <c r="M199" s="13"/>
+      <c r="M199" s="5"/>
       <c r="N199" s="13"/>
-    </row>
-    <row r="200" spans="1:14" s="4" customFormat="1">
+      <c r="O199" s="13"/>
+    </row>
+    <row r="200" spans="1:15" s="4" customFormat="1">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="5"/>
@@ -6060,14 +6269,15 @@
       <c r="F200" s="5"/>
       <c r="G200" s="13"/>
       <c r="H200" s="13"/>
-      <c r="I200" s="5"/>
+      <c r="I200" s="13"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
       <c r="L200" s="5"/>
-      <c r="M200" s="13"/>
+      <c r="M200" s="5"/>
       <c r="N200" s="13"/>
-    </row>
-    <row r="201" spans="1:14" s="4" customFormat="1">
+      <c r="O200" s="13"/>
+    </row>
+    <row r="201" spans="1:15" s="4" customFormat="1">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="5"/>
@@ -6076,14 +6286,15 @@
       <c r="F201" s="5"/>
       <c r="G201" s="13"/>
       <c r="H201" s="13"/>
-      <c r="I201" s="5"/>
+      <c r="I201" s="13"/>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
       <c r="L201" s="5"/>
-      <c r="M201" s="13"/>
+      <c r="M201" s="5"/>
       <c r="N201" s="13"/>
-    </row>
-    <row r="202" spans="1:14" s="4" customFormat="1">
+      <c r="O201" s="13"/>
+    </row>
+    <row r="202" spans="1:15" s="4" customFormat="1">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="5"/>
@@ -6092,14 +6303,15 @@
       <c r="F202" s="5"/>
       <c r="G202" s="13"/>
       <c r="H202" s="13"/>
-      <c r="I202" s="5"/>
+      <c r="I202" s="13"/>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
       <c r="L202" s="5"/>
-      <c r="M202" s="13"/>
+      <c r="M202" s="5"/>
       <c r="N202" s="13"/>
-    </row>
-    <row r="203" spans="1:14" s="4" customFormat="1">
+      <c r="O202" s="13"/>
+    </row>
+    <row r="203" spans="1:15" s="4" customFormat="1">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="5"/>
@@ -6108,14 +6320,15 @@
       <c r="F203" s="5"/>
       <c r="G203" s="13"/>
       <c r="H203" s="13"/>
-      <c r="I203" s="5"/>
+      <c r="I203" s="13"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
-      <c r="M203" s="13"/>
+      <c r="M203" s="5"/>
       <c r="N203" s="13"/>
-    </row>
-    <row r="204" spans="1:14" s="4" customFormat="1">
+      <c r="O203" s="13"/>
+    </row>
+    <row r="204" spans="1:15" s="4" customFormat="1">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="5"/>
@@ -6124,14 +6337,15 @@
       <c r="F204" s="5"/>
       <c r="G204" s="13"/>
       <c r="H204" s="13"/>
-      <c r="I204" s="5"/>
+      <c r="I204" s="13"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
-      <c r="M204" s="13"/>
+      <c r="M204" s="5"/>
       <c r="N204" s="13"/>
-    </row>
-    <row r="205" spans="1:14" s="4" customFormat="1">
+      <c r="O204" s="13"/>
+    </row>
+    <row r="205" spans="1:15" s="4" customFormat="1">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="5"/>
@@ -6140,14 +6354,15 @@
       <c r="F205" s="5"/>
       <c r="G205" s="13"/>
       <c r="H205" s="13"/>
-      <c r="I205" s="5"/>
+      <c r="I205" s="13"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
-      <c r="M205" s="13"/>
+      <c r="M205" s="5"/>
       <c r="N205" s="13"/>
-    </row>
-    <row r="206" spans="1:14" s="4" customFormat="1">
+      <c r="O205" s="13"/>
+    </row>
+    <row r="206" spans="1:15" s="4" customFormat="1">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="5"/>
@@ -6156,14 +6371,15 @@
       <c r="F206" s="5"/>
       <c r="G206" s="13"/>
       <c r="H206" s="13"/>
-      <c r="I206" s="5"/>
+      <c r="I206" s="13"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
-      <c r="M206" s="13"/>
+      <c r="M206" s="5"/>
       <c r="N206" s="13"/>
-    </row>
-    <row r="207" spans="1:14" s="4" customFormat="1">
+      <c r="O206" s="13"/>
+    </row>
+    <row r="207" spans="1:15" s="4" customFormat="1">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="5"/>
@@ -6172,14 +6388,15 @@
       <c r="F207" s="5"/>
       <c r="G207" s="13"/>
       <c r="H207" s="13"/>
-      <c r="I207" s="5"/>
+      <c r="I207" s="13"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
       <c r="L207" s="5"/>
-      <c r="M207" s="13"/>
+      <c r="M207" s="5"/>
       <c r="N207" s="13"/>
-    </row>
-    <row r="208" spans="1:14" s="4" customFormat="1">
+      <c r="O207" s="13"/>
+    </row>
+    <row r="208" spans="1:15" s="4" customFormat="1">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="5"/>
@@ -6188,14 +6405,15 @@
       <c r="F208" s="5"/>
       <c r="G208" s="13"/>
       <c r="H208" s="13"/>
-      <c r="I208" s="5"/>
+      <c r="I208" s="13"/>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
-      <c r="M208" s="13"/>
+      <c r="M208" s="5"/>
       <c r="N208" s="13"/>
-    </row>
-    <row r="209" spans="1:14" s="4" customFormat="1">
+      <c r="O208" s="13"/>
+    </row>
+    <row r="209" spans="1:15" s="4" customFormat="1">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="5"/>
@@ -6204,14 +6422,15 @@
       <c r="F209" s="5"/>
       <c r="G209" s="13"/>
       <c r="H209" s="13"/>
-      <c r="I209" s="5"/>
+      <c r="I209" s="13"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
-      <c r="M209" s="13"/>
+      <c r="M209" s="5"/>
       <c r="N209" s="13"/>
-    </row>
-    <row r="210" spans="1:14" s="4" customFormat="1">
+      <c r="O209" s="13"/>
+    </row>
+    <row r="210" spans="1:15" s="4" customFormat="1">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="5"/>
@@ -6220,14 +6439,15 @@
       <c r="F210" s="5"/>
       <c r="G210" s="13"/>
       <c r="H210" s="13"/>
-      <c r="I210" s="5"/>
+      <c r="I210" s="13"/>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
       <c r="L210" s="5"/>
-      <c r="M210" s="13"/>
+      <c r="M210" s="5"/>
       <c r="N210" s="13"/>
-    </row>
-    <row r="211" spans="1:14" s="4" customFormat="1">
+      <c r="O210" s="13"/>
+    </row>
+    <row r="211" spans="1:15" s="4" customFormat="1">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="5"/>
@@ -6236,14 +6456,15 @@
       <c r="F211" s="5"/>
       <c r="G211" s="13"/>
       <c r="H211" s="13"/>
-      <c r="I211" s="5"/>
+      <c r="I211" s="13"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
-      <c r="M211" s="13"/>
+      <c r="M211" s="5"/>
       <c r="N211" s="13"/>
-    </row>
-    <row r="212" spans="1:14" s="4" customFormat="1">
+      <c r="O211" s="13"/>
+    </row>
+    <row r="212" spans="1:15" s="4" customFormat="1">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="5"/>
@@ -6252,14 +6473,15 @@
       <c r="F212" s="5"/>
       <c r="G212" s="13"/>
       <c r="H212" s="13"/>
-      <c r="I212" s="5"/>
+      <c r="I212" s="13"/>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
       <c r="L212" s="5"/>
-      <c r="M212" s="13"/>
+      <c r="M212" s="5"/>
       <c r="N212" s="13"/>
-    </row>
-    <row r="213" spans="1:14" s="4" customFormat="1">
+      <c r="O212" s="13"/>
+    </row>
+    <row r="213" spans="1:15" s="4" customFormat="1">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="5"/>
@@ -6268,14 +6490,15 @@
       <c r="F213" s="5"/>
       <c r="G213" s="13"/>
       <c r="H213" s="13"/>
-      <c r="I213" s="5"/>
+      <c r="I213" s="13"/>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
       <c r="L213" s="5"/>
-      <c r="M213" s="13"/>
+      <c r="M213" s="5"/>
       <c r="N213" s="13"/>
-    </row>
-    <row r="214" spans="1:14" s="4" customFormat="1">
+      <c r="O213" s="13"/>
+    </row>
+    <row r="214" spans="1:15" s="4" customFormat="1">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="5"/>
@@ -6284,14 +6507,15 @@
       <c r="F214" s="5"/>
       <c r="G214" s="13"/>
       <c r="H214" s="13"/>
-      <c r="I214" s="5"/>
+      <c r="I214" s="13"/>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
       <c r="L214" s="5"/>
-      <c r="M214" s="13"/>
+      <c r="M214" s="5"/>
       <c r="N214" s="13"/>
-    </row>
-    <row r="215" spans="1:14" s="4" customFormat="1">
+      <c r="O214" s="13"/>
+    </row>
+    <row r="215" spans="1:15" s="4" customFormat="1">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="5"/>
@@ -6300,14 +6524,15 @@
       <c r="F215" s="5"/>
       <c r="G215" s="13"/>
       <c r="H215" s="13"/>
-      <c r="I215" s="5"/>
+      <c r="I215" s="13"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
       <c r="L215" s="5"/>
-      <c r="M215" s="13"/>
+      <c r="M215" s="5"/>
       <c r="N215" s="13"/>
-    </row>
-    <row r="216" spans="1:14" s="4" customFormat="1">
+      <c r="O215" s="13"/>
+    </row>
+    <row r="216" spans="1:15" s="4" customFormat="1">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="5"/>
@@ -6316,14 +6541,15 @@
       <c r="F216" s="5"/>
       <c r="G216" s="13"/>
       <c r="H216" s="13"/>
-      <c r="I216" s="5"/>
+      <c r="I216" s="13"/>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
       <c r="L216" s="5"/>
-      <c r="M216" s="13"/>
+      <c r="M216" s="5"/>
       <c r="N216" s="13"/>
-    </row>
-    <row r="217" spans="1:14" s="4" customFormat="1">
+      <c r="O216" s="13"/>
+    </row>
+    <row r="217" spans="1:15" s="4" customFormat="1">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="5"/>
@@ -6332,14 +6558,15 @@
       <c r="F217" s="5"/>
       <c r="G217" s="13"/>
       <c r="H217" s="13"/>
-      <c r="I217" s="5"/>
+      <c r="I217" s="13"/>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
       <c r="L217" s="5"/>
-      <c r="M217" s="13"/>
+      <c r="M217" s="5"/>
       <c r="N217" s="13"/>
-    </row>
-    <row r="218" spans="1:14" s="4" customFormat="1">
+      <c r="O217" s="13"/>
+    </row>
+    <row r="218" spans="1:15" s="4" customFormat="1">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="5"/>
@@ -6348,14 +6575,15 @@
       <c r="F218" s="5"/>
       <c r="G218" s="13"/>
       <c r="H218" s="13"/>
-      <c r="I218" s="5"/>
+      <c r="I218" s="13"/>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
       <c r="L218" s="5"/>
-      <c r="M218" s="13"/>
+      <c r="M218" s="5"/>
       <c r="N218" s="13"/>
-    </row>
-    <row r="219" spans="1:14" s="4" customFormat="1">
+      <c r="O218" s="13"/>
+    </row>
+    <row r="219" spans="1:15" s="4" customFormat="1">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="5"/>
@@ -6364,14 +6592,15 @@
       <c r="F219" s="5"/>
       <c r="G219" s="13"/>
       <c r="H219" s="13"/>
-      <c r="I219" s="5"/>
+      <c r="I219" s="13"/>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
       <c r="L219" s="5"/>
-      <c r="M219" s="13"/>
+      <c r="M219" s="5"/>
       <c r="N219" s="13"/>
-    </row>
-    <row r="220" spans="1:14" s="4" customFormat="1">
+      <c r="O219" s="13"/>
+    </row>
+    <row r="220" spans="1:15" s="4" customFormat="1">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="5"/>
@@ -6380,14 +6609,15 @@
       <c r="F220" s="5"/>
       <c r="G220" s="13"/>
       <c r="H220" s="13"/>
-      <c r="I220" s="5"/>
+      <c r="I220" s="13"/>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
-      <c r="M220" s="13"/>
+      <c r="M220" s="5"/>
       <c r="N220" s="13"/>
-    </row>
-    <row r="221" spans="1:14" s="4" customFormat="1">
+      <c r="O220" s="13"/>
+    </row>
+    <row r="221" spans="1:15" s="4" customFormat="1">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="5"/>
@@ -6396,14 +6626,15 @@
       <c r="F221" s="5"/>
       <c r="G221" s="13"/>
       <c r="H221" s="13"/>
-      <c r="I221" s="5"/>
+      <c r="I221" s="13"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
-      <c r="M221" s="13"/>
+      <c r="M221" s="5"/>
       <c r="N221" s="13"/>
-    </row>
-    <row r="222" spans="1:14" s="4" customFormat="1">
+      <c r="O221" s="13"/>
+    </row>
+    <row r="222" spans="1:15" s="4" customFormat="1">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="5"/>
@@ -6412,14 +6643,15 @@
       <c r="F222" s="5"/>
       <c r="G222" s="13"/>
       <c r="H222" s="13"/>
-      <c r="I222" s="5"/>
+      <c r="I222" s="13"/>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
       <c r="L222" s="5"/>
-      <c r="M222" s="13"/>
+      <c r="M222" s="5"/>
       <c r="N222" s="13"/>
-    </row>
-    <row r="223" spans="1:14" s="4" customFormat="1">
+      <c r="O222" s="13"/>
+    </row>
+    <row r="223" spans="1:15" s="4" customFormat="1">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="5"/>
@@ -6428,14 +6660,15 @@
       <c r="F223" s="5"/>
       <c r="G223" s="13"/>
       <c r="H223" s="13"/>
-      <c r="I223" s="5"/>
+      <c r="I223" s="13"/>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
       <c r="L223" s="5"/>
-      <c r="M223" s="13"/>
+      <c r="M223" s="5"/>
       <c r="N223" s="13"/>
-    </row>
-    <row r="224" spans="1:14" s="4" customFormat="1">
+      <c r="O223" s="13"/>
+    </row>
+    <row r="224" spans="1:15" s="4" customFormat="1">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="5"/>
@@ -6444,14 +6677,15 @@
       <c r="F224" s="5"/>
       <c r="G224" s="13"/>
       <c r="H224" s="13"/>
-      <c r="I224" s="5"/>
+      <c r="I224" s="13"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
-      <c r="M224" s="13"/>
+      <c r="M224" s="5"/>
       <c r="N224" s="13"/>
-    </row>
-    <row r="225" spans="1:14" s="4" customFormat="1">
+      <c r="O224" s="13"/>
+    </row>
+    <row r="225" spans="1:15" s="4" customFormat="1">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="5"/>
@@ -6460,14 +6694,15 @@
       <c r="F225" s="5"/>
       <c r="G225" s="13"/>
       <c r="H225" s="13"/>
-      <c r="I225" s="5"/>
+      <c r="I225" s="13"/>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
-      <c r="M225" s="13"/>
+      <c r="M225" s="5"/>
       <c r="N225" s="13"/>
-    </row>
-    <row r="226" spans="1:14" s="4" customFormat="1">
+      <c r="O225" s="13"/>
+    </row>
+    <row r="226" spans="1:15" s="4" customFormat="1">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="5"/>
@@ -6476,14 +6711,15 @@
       <c r="F226" s="5"/>
       <c r="G226" s="13"/>
       <c r="H226" s="13"/>
-      <c r="I226" s="5"/>
+      <c r="I226" s="13"/>
       <c r="J226" s="5"/>
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
-      <c r="M226" s="13"/>
+      <c r="M226" s="5"/>
       <c r="N226" s="13"/>
-    </row>
-    <row r="227" spans="1:14" s="4" customFormat="1">
+      <c r="O226" s="13"/>
+    </row>
+    <row r="227" spans="1:15" s="4" customFormat="1">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="5"/>
@@ -6492,14 +6728,15 @@
       <c r="F227" s="5"/>
       <c r="G227" s="13"/>
       <c r="H227" s="13"/>
-      <c r="I227" s="5"/>
+      <c r="I227" s="13"/>
       <c r="J227" s="5"/>
       <c r="K227" s="5"/>
       <c r="L227" s="5"/>
-      <c r="M227" s="13"/>
+      <c r="M227" s="5"/>
       <c r="N227" s="13"/>
-    </row>
-    <row r="228" spans="1:14" s="4" customFormat="1">
+      <c r="O227" s="13"/>
+    </row>
+    <row r="228" spans="1:15" s="4" customFormat="1">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="5"/>
@@ -6508,14 +6745,15 @@
       <c r="F228" s="5"/>
       <c r="G228" s="13"/>
       <c r="H228" s="13"/>
-      <c r="I228" s="5"/>
+      <c r="I228" s="13"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
       <c r="L228" s="5"/>
-      <c r="M228" s="13"/>
+      <c r="M228" s="5"/>
       <c r="N228" s="13"/>
-    </row>
-    <row r="229" spans="1:14" s="4" customFormat="1">
+      <c r="O228" s="13"/>
+    </row>
+    <row r="229" spans="1:15" s="4" customFormat="1">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="5"/>
@@ -6524,14 +6762,15 @@
       <c r="F229" s="5"/>
       <c r="G229" s="13"/>
       <c r="H229" s="13"/>
-      <c r="I229" s="5"/>
+      <c r="I229" s="13"/>
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
       <c r="L229" s="5"/>
-      <c r="M229" s="13"/>
+      <c r="M229" s="5"/>
       <c r="N229" s="13"/>
-    </row>
-    <row r="230" spans="1:14" s="4" customFormat="1">
+      <c r="O229" s="13"/>
+    </row>
+    <row r="230" spans="1:15" s="4" customFormat="1">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="5"/>
@@ -6540,14 +6779,15 @@
       <c r="F230" s="5"/>
       <c r="G230" s="13"/>
       <c r="H230" s="13"/>
-      <c r="I230" s="5"/>
+      <c r="I230" s="13"/>
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
       <c r="L230" s="5"/>
-      <c r="M230" s="13"/>
+      <c r="M230" s="5"/>
       <c r="N230" s="13"/>
-    </row>
-    <row r="231" spans="1:14" s="4" customFormat="1">
+      <c r="O230" s="13"/>
+    </row>
+    <row r="231" spans="1:15" s="4" customFormat="1">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="5"/>
@@ -6556,14 +6796,15 @@
       <c r="F231" s="5"/>
       <c r="G231" s="13"/>
       <c r="H231" s="13"/>
-      <c r="I231" s="5"/>
+      <c r="I231" s="13"/>
       <c r="J231" s="5"/>
       <c r="K231" s="5"/>
       <c r="L231" s="5"/>
-      <c r="M231" s="13"/>
+      <c r="M231" s="5"/>
       <c r="N231" s="13"/>
-    </row>
-    <row r="232" spans="1:14" s="4" customFormat="1">
+      <c r="O231" s="13"/>
+    </row>
+    <row r="232" spans="1:15" s="4" customFormat="1">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="5"/>
@@ -6572,14 +6813,15 @@
       <c r="F232" s="5"/>
       <c r="G232" s="13"/>
       <c r="H232" s="13"/>
-      <c r="I232" s="5"/>
+      <c r="I232" s="13"/>
       <c r="J232" s="5"/>
       <c r="K232" s="5"/>
       <c r="L232" s="5"/>
-      <c r="M232" s="13"/>
+      <c r="M232" s="5"/>
       <c r="N232" s="13"/>
-    </row>
-    <row r="233" spans="1:14" s="4" customFormat="1">
+      <c r="O232" s="13"/>
+    </row>
+    <row r="233" spans="1:15" s="4" customFormat="1">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="5"/>
@@ -6588,14 +6830,15 @@
       <c r="F233" s="5"/>
       <c r="G233" s="13"/>
       <c r="H233" s="13"/>
-      <c r="I233" s="5"/>
+      <c r="I233" s="13"/>
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
       <c r="L233" s="5"/>
-      <c r="M233" s="13"/>
+      <c r="M233" s="5"/>
       <c r="N233" s="13"/>
-    </row>
-    <row r="234" spans="1:14" s="4" customFormat="1">
+      <c r="O233" s="13"/>
+    </row>
+    <row r="234" spans="1:15" s="4" customFormat="1">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="5"/>
@@ -6604,36 +6847,21 @@
       <c r="F234" s="5"/>
       <c r="G234" s="13"/>
       <c r="H234" s="13"/>
-      <c r="I234" s="5"/>
+      <c r="I234" s="13"/>
       <c r="J234" s="5"/>
       <c r="K234" s="5"/>
       <c r="L234" s="5"/>
-      <c r="M234" s="13"/>
+      <c r="M234" s="5"/>
       <c r="N234" s="13"/>
-    </row>
-    <row r="235" spans="1:14" s="4" customFormat="1">
-      <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="13"/>
-      <c r="H235" s="13"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="5"/>
-      <c r="K235" s="5"/>
-      <c r="L235" s="5"/>
-      <c r="M235" s="13"/>
-      <c r="N235" s="13"/>
+      <c r="O234" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" sqref="F9:F235">
-      <formula1>O$1:O$8</formula1>
+    <dataValidation type="list" sqref="F8:F234">
+      <formula1>P$1:P$7</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E2:E8">
-      <formula1>N$1:N$134</formula1>
+    <dataValidation type="list" sqref="E2:E7">
+      <formula1>O$1:O$133</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resources/Total_Qty_Calculation.xlsx
+++ b/Resources/Total_Qty_Calculation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="204">
   <si>
     <t>Line Item</t>
   </si>
@@ -212,48 +212,6 @@
     <t>SMT CP</t>
   </si>
   <si>
-    <t>IND-THT DIP</t>
-  </si>
-  <si>
-    <t>IND-THT DISC</t>
-  </si>
-  <si>
-    <t>IND-THT EP</t>
-  </si>
-  <si>
-    <t>IND-THT TOROID</t>
-  </si>
-  <si>
-    <t>INSULATO ALL</t>
-  </si>
-  <si>
-    <t>LABEL ALL</t>
-  </si>
-  <si>
-    <t>LCD ALL</t>
-  </si>
-  <si>
-    <t>LED-SMT ALL</t>
-  </si>
-  <si>
-    <t>LED-THT ALL</t>
-  </si>
-  <si>
-    <t>METAL BOX</t>
-  </si>
-  <si>
-    <t>METAL CHASSIS</t>
-  </si>
-  <si>
-    <t>METAL COVER</t>
-  </si>
-  <si>
-    <t>METAL FRAME</t>
-  </si>
-  <si>
-    <t>METAL OTHER</t>
-  </si>
-  <si>
     <t>METAL SHIELD</t>
   </si>
   <si>
@@ -657,6 +615,18 @@
   </si>
   <si>
     <t>50.85</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>C0402C562K3RACTU78</t>
+  </si>
+  <si>
+    <t>16SEPC100M91011</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1232,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1323,6 +1293,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2292,7 +2267,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2300,29 +2275,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R234"/>
+  <dimension ref="A1:Q220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125"/>
     <col min="5" max="5" width="17" style="6" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="15" style="6" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="26" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1"/>
     <col min="16" max="16" width="24" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="26.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2344,11 +2321,11 @@
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="27" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>51</v>
@@ -2384,35 +2361,35 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="20" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="25" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H2" s="13">
         <v>1</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
@@ -2429,35 +2406,35 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="20" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="25" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="H3" s="13">
         <v>2</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -2474,35 +2451,35 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="20" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="25" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H4" s="13">
         <v>3</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -2516,35 +2493,35 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="20" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="25" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="H5" s="13">
         <v>4</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -2558,35 +2535,35 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="20" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="25" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="H6" s="13">
         <v>5</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -2600,35 +2577,35 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="20" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="25" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="H7" s="13">
         <v>6</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -2637,19 +2614,41 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="13">
+        <v>7</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="4" t="s">
@@ -2657,19 +2656,41 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="13">
+        <v>8</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="4" t="s">
@@ -2677,19 +2698,41 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="13">
+        <v>9</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="4" t="s">
@@ -2697,19 +2740,41 @@
       </c>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="13">
+        <v>10</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="4" t="s">
@@ -2717,19 +2782,41 @@
       </c>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="13">
+        <v>11</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="4" t="s">
@@ -2743,7 +2830,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="12"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="5"/>
@@ -2763,7 +2850,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="12"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="5"/>
@@ -2783,7 +2870,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="12"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="5"/>
@@ -2803,7 +2890,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="12"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="5"/>
@@ -2823,7 +2910,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="12"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="5"/>
@@ -2843,7 +2930,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="12"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="5"/>
@@ -2863,7 +2950,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="12"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="5"/>
@@ -2883,7 +2970,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="12"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="5"/>
@@ -2903,7 +2990,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="12"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="5"/>
@@ -2923,7 +3010,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="12"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="13"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="5"/>
@@ -2943,7 +3030,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="12"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="13"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="5"/>
@@ -2963,7 +3050,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="12"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="13"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="5"/>
@@ -2983,7 +3070,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="12"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="5"/>
@@ -3003,7 +3090,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="12"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="5"/>
@@ -3023,7 +3110,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="12"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="5"/>
@@ -3043,7 +3130,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="12"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="5"/>
@@ -3063,7 +3150,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="12"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="5"/>
@@ -3083,7 +3170,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="12"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="5"/>
@@ -3103,7 +3190,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="12"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="5"/>
@@ -3123,7 +3210,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="12"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="13"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="5"/>
@@ -3143,7 +3230,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="12"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="13"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="5"/>
@@ -3163,7 +3250,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="12"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="13"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="5"/>
@@ -3183,7 +3270,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="12"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="13"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="5"/>
@@ -3203,7 +3290,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="12"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="13"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="5"/>
@@ -3223,7 +3310,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="12"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="13"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="5"/>
@@ -3243,7 +3330,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="12"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="13"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="5"/>
@@ -3263,7 +3350,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="12"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="13"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="5"/>
@@ -3283,7 +3370,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="12"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="13"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="5"/>
@@ -3303,7 +3390,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="12"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="13"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="5"/>
@@ -3323,7 +3410,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="12"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="13"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="5"/>
@@ -3343,7 +3430,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="12"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="13"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="5"/>
@@ -3363,7 +3450,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="12"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="13"/>
+      <c r="G44" s="28"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="5"/>
@@ -3383,7 +3470,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="12"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="13"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="5"/>
@@ -3403,7 +3490,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="12"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="13"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="5"/>
@@ -3423,7 +3510,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="12"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="13"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="5"/>
@@ -3443,7 +3530,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="12"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="13"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="5"/>
@@ -3463,7 +3550,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="12"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="5"/>
@@ -3483,7 +3570,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="12"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="13"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="5"/>
@@ -3503,7 +3590,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="12"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="13"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="5"/>
@@ -3523,7 +3610,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="12"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="13"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="5"/>
@@ -3543,7 +3630,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="12"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="5"/>
@@ -3563,7 +3650,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="12"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="13"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="5"/>
@@ -3583,7 +3670,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="12"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="13"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="5"/>
@@ -3603,7 +3690,7 @@
       <c r="D56" s="7"/>
       <c r="E56" s="12"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="13"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="5"/>
@@ -3623,7 +3710,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="12"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="13"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="5"/>
@@ -3643,7 +3730,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="12"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="13"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="5"/>
@@ -3663,7 +3750,7 @@
       <c r="D59" s="7"/>
       <c r="E59" s="12"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="13"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="5"/>
@@ -3683,7 +3770,7 @@
       <c r="D60" s="7"/>
       <c r="E60" s="12"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="13"/>
+      <c r="G60" s="28"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="5"/>
@@ -3703,7 +3790,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="12"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="13"/>
+      <c r="G61" s="28"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="5"/>
@@ -3723,7 +3810,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="12"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="13"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="5"/>
@@ -3743,7 +3830,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="12"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="13"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
       <c r="J63" s="5"/>
@@ -3763,7 +3850,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="12"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="13"/>
+      <c r="G64" s="28"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="5"/>
@@ -3783,7 +3870,7 @@
       <c r="D65" s="7"/>
       <c r="E65" s="12"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="13"/>
+      <c r="G65" s="28"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="5"/>
@@ -3803,7 +3890,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="12"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="13"/>
+      <c r="G66" s="28"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="5"/>
@@ -3823,7 +3910,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="12"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="13"/>
+      <c r="G67" s="28"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="5"/>
@@ -3843,7 +3930,7 @@
       <c r="D68" s="7"/>
       <c r="E68" s="12"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="13"/>
+      <c r="G68" s="28"/>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="5"/>
@@ -3863,7 +3950,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="12"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="13"/>
+      <c r="G69" s="28"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="5"/>
@@ -3883,7 +3970,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="12"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="13"/>
+      <c r="G70" s="28"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="5"/>
@@ -3903,7 +3990,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="12"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="13"/>
+      <c r="G71" s="28"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="5"/>
@@ -3923,7 +4010,7 @@
       <c r="D72" s="7"/>
       <c r="E72" s="12"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="13"/>
+      <c r="G72" s="28"/>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="5"/>
@@ -3943,7 +4030,7 @@
       <c r="D73" s="7"/>
       <c r="E73" s="12"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="13"/>
+      <c r="G73" s="28"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="5"/>
@@ -3963,7 +4050,7 @@
       <c r="D74" s="7"/>
       <c r="E74" s="12"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="13"/>
+      <c r="G74" s="28"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="5"/>
@@ -3983,7 +4070,7 @@
       <c r="D75" s="7"/>
       <c r="E75" s="12"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="13"/>
+      <c r="G75" s="28"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
       <c r="J75" s="5"/>
@@ -4003,7 +4090,7 @@
       <c r="D76" s="7"/>
       <c r="E76" s="12"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="13"/>
+      <c r="G76" s="28"/>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="5"/>
@@ -4023,7 +4110,7 @@
       <c r="D77" s="7"/>
       <c r="E77" s="12"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="13"/>
+      <c r="G77" s="28"/>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="5"/>
@@ -4043,7 +4130,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="12"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="13"/>
+      <c r="G78" s="28"/>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="5"/>
@@ -4063,7 +4150,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="12"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="13"/>
+      <c r="G79" s="28"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="5"/>
@@ -4083,7 +4170,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="12"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="13"/>
+      <c r="G80" s="28"/>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="5"/>
@@ -4103,7 +4190,7 @@
       <c r="D81" s="7"/>
       <c r="E81" s="12"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="13"/>
+      <c r="G81" s="28"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="5"/>
@@ -4123,7 +4210,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="12"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="13"/>
+      <c r="G82" s="28"/>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="5"/>
@@ -4143,7 +4230,7 @@
       <c r="D83" s="7"/>
       <c r="E83" s="12"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="13"/>
+      <c r="G83" s="28"/>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="5"/>
@@ -4163,7 +4250,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="12"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="13"/>
+      <c r="G84" s="28"/>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="5"/>
@@ -4183,7 +4270,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="12"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="13"/>
+      <c r="G85" s="28"/>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="5"/>
@@ -4203,7 +4290,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="12"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="13"/>
+      <c r="G86" s="28"/>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="5"/>
@@ -4223,7 +4310,7 @@
       <c r="D87" s="7"/>
       <c r="E87" s="12"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="13"/>
+      <c r="G87" s="28"/>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="5"/>
@@ -4243,7 +4330,7 @@
       <c r="D88" s="7"/>
       <c r="E88" s="12"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="13"/>
+      <c r="G88" s="28"/>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="5"/>
@@ -4263,7 +4350,7 @@
       <c r="D89" s="7"/>
       <c r="E89" s="12"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="13"/>
+      <c r="G89" s="28"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="5"/>
@@ -4283,7 +4370,7 @@
       <c r="D90" s="7"/>
       <c r="E90" s="12"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="13"/>
+      <c r="G90" s="28"/>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="5"/>
@@ -4303,7 +4390,7 @@
       <c r="D91" s="7"/>
       <c r="E91" s="12"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="13"/>
+      <c r="G91" s="28"/>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
       <c r="J91" s="5"/>
@@ -4323,7 +4410,7 @@
       <c r="D92" s="7"/>
       <c r="E92" s="12"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="13"/>
+      <c r="G92" s="28"/>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="5"/>
@@ -4343,7 +4430,7 @@
       <c r="D93" s="7"/>
       <c r="E93" s="12"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="13"/>
+      <c r="G93" s="28"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
       <c r="J93" s="5"/>
@@ -4363,7 +4450,7 @@
       <c r="D94" s="7"/>
       <c r="E94" s="12"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="13"/>
+      <c r="G94" s="28"/>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="5"/>
@@ -4383,7 +4470,7 @@
       <c r="D95" s="7"/>
       <c r="E95" s="12"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="13"/>
+      <c r="G95" s="28"/>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
       <c r="J95" s="5"/>
@@ -4403,7 +4490,7 @@
       <c r="D96" s="7"/>
       <c r="E96" s="12"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="13"/>
+      <c r="G96" s="28"/>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="5"/>
@@ -4423,7 +4510,7 @@
       <c r="D97" s="7"/>
       <c r="E97" s="12"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="13"/>
+      <c r="G97" s="28"/>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
       <c r="J97" s="5"/>
@@ -4443,7 +4530,7 @@
       <c r="D98" s="7"/>
       <c r="E98" s="12"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="13"/>
+      <c r="G98" s="28"/>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="5"/>
@@ -4463,7 +4550,7 @@
       <c r="D99" s="7"/>
       <c r="E99" s="12"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="13"/>
+      <c r="G99" s="28"/>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
       <c r="J99" s="5"/>
@@ -4483,7 +4570,7 @@
       <c r="D100" s="7"/>
       <c r="E100" s="12"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="13"/>
+      <c r="G100" s="28"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="5"/>
@@ -4503,7 +4590,7 @@
       <c r="D101" s="7"/>
       <c r="E101" s="12"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="13"/>
+      <c r="G101" s="28"/>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
       <c r="J101" s="5"/>
@@ -4523,7 +4610,7 @@
       <c r="D102" s="7"/>
       <c r="E102" s="12"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="13"/>
+      <c r="G102" s="28"/>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="5"/>
@@ -4543,7 +4630,7 @@
       <c r="D103" s="7"/>
       <c r="E103" s="12"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="13"/>
+      <c r="G103" s="28"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
       <c r="J103" s="5"/>
@@ -4563,7 +4650,7 @@
       <c r="D104" s="7"/>
       <c r="E104" s="12"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="13"/>
+      <c r="G104" s="28"/>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="5"/>
@@ -4583,7 +4670,7 @@
       <c r="D105" s="7"/>
       <c r="E105" s="12"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="13"/>
+      <c r="G105" s="28"/>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="5"/>
@@ -4603,7 +4690,7 @@
       <c r="D106" s="7"/>
       <c r="E106" s="12"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="13"/>
+      <c r="G106" s="28"/>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="5"/>
@@ -4623,7 +4710,7 @@
       <c r="D107" s="7"/>
       <c r="E107" s="12"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="13"/>
+      <c r="G107" s="28"/>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="5"/>
@@ -4643,7 +4730,7 @@
       <c r="D108" s="7"/>
       <c r="E108" s="12"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="13"/>
+      <c r="G108" s="28"/>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="5"/>
@@ -4663,7 +4750,7 @@
       <c r="D109" s="7"/>
       <c r="E109" s="12"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="13"/>
+      <c r="G109" s="28"/>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
       <c r="J109" s="5"/>
@@ -4683,7 +4770,7 @@
       <c r="D110" s="7"/>
       <c r="E110" s="12"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="13"/>
+      <c r="G110" s="28"/>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="5"/>
@@ -4703,7 +4790,7 @@
       <c r="D111" s="7"/>
       <c r="E111" s="12"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="13"/>
+      <c r="G111" s="28"/>
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
       <c r="J111" s="5"/>
@@ -4723,7 +4810,7 @@
       <c r="D112" s="7"/>
       <c r="E112" s="12"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="13"/>
+      <c r="G112" s="28"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="5"/>
@@ -4743,7 +4830,7 @@
       <c r="D113" s="7"/>
       <c r="E113" s="12"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="13"/>
+      <c r="G113" s="28"/>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
       <c r="J113" s="5"/>
@@ -4763,7 +4850,7 @@
       <c r="D114" s="7"/>
       <c r="E114" s="12"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="13"/>
+      <c r="G114" s="28"/>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="5"/>
@@ -4772,9 +4859,6 @@
       <c r="M114" s="5"/>
       <c r="N114" s="13"/>
       <c r="O114" s="13"/>
-      <c r="P114" s="4" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="115" spans="1:16" s="4" customFormat="1">
       <c r="A115" s="7"/>
@@ -4783,7 +4867,7 @@
       <c r="D115" s="7"/>
       <c r="E115" s="12"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="13"/>
+      <c r="G115" s="28"/>
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
       <c r="J115" s="5"/>
@@ -4792,9 +4876,6 @@
       <c r="M115" s="5"/>
       <c r="N115" s="13"/>
       <c r="O115" s="13"/>
-      <c r="P115" s="4" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="116" spans="1:16" s="4" customFormat="1">
       <c r="A116" s="7"/>
@@ -4803,7 +4884,7 @@
       <c r="D116" s="7"/>
       <c r="E116" s="12"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="13"/>
+      <c r="G116" s="28"/>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="5"/>
@@ -4812,9 +4893,6 @@
       <c r="M116" s="5"/>
       <c r="N116" s="13"/>
       <c r="O116" s="13"/>
-      <c r="P116" s="4" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="117" spans="1:16" s="4" customFormat="1">
       <c r="A117" s="7"/>
@@ -4823,7 +4901,7 @@
       <c r="D117" s="7"/>
       <c r="E117" s="12"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="13"/>
+      <c r="G117" s="28"/>
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="5"/>
@@ -4832,9 +4910,6 @@
       <c r="M117" s="5"/>
       <c r="N117" s="13"/>
       <c r="O117" s="13"/>
-      <c r="P117" s="4" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="118" spans="1:16" s="4" customFormat="1">
       <c r="A118" s="7"/>
@@ -4843,7 +4918,7 @@
       <c r="D118" s="7"/>
       <c r="E118" s="12"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="13"/>
+      <c r="G118" s="28"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="5"/>
@@ -4852,9 +4927,6 @@
       <c r="M118" s="5"/>
       <c r="N118" s="13"/>
       <c r="O118" s="13"/>
-      <c r="P118" s="4" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="119" spans="1:16" s="4" customFormat="1">
       <c r="A119" s="7"/>
@@ -4863,7 +4935,7 @@
       <c r="D119" s="7"/>
       <c r="E119" s="12"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="13"/>
+      <c r="G119" s="28"/>
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
       <c r="J119" s="5"/>
@@ -4872,9 +4944,6 @@
       <c r="M119" s="5"/>
       <c r="N119" s="13"/>
       <c r="O119" s="13"/>
-      <c r="P119" s="4" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="120" spans="1:16" s="4" customFormat="1">
       <c r="A120" s="7"/>
@@ -4883,7 +4952,7 @@
       <c r="D120" s="7"/>
       <c r="E120" s="12"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="13"/>
+      <c r="G120" s="28"/>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="5"/>
@@ -4892,9 +4961,6 @@
       <c r="M120" s="5"/>
       <c r="N120" s="13"/>
       <c r="O120" s="13"/>
-      <c r="P120" s="4" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="121" spans="1:16" s="4" customFormat="1">
       <c r="A121" s="7"/>
@@ -4903,7 +4969,7 @@
       <c r="D121" s="7"/>
       <c r="E121" s="12"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="13"/>
+      <c r="G121" s="28"/>
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
       <c r="J121" s="5"/>
@@ -4912,9 +4978,6 @@
       <c r="M121" s="5"/>
       <c r="N121" s="13"/>
       <c r="O121" s="13"/>
-      <c r="P121" s="4" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="122" spans="1:16" s="4" customFormat="1">
       <c r="A122" s="7"/>
@@ -4923,7 +4986,7 @@
       <c r="D122" s="7"/>
       <c r="E122" s="12"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="13"/>
+      <c r="G122" s="28"/>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="5"/>
@@ -4932,9 +4995,6 @@
       <c r="M122" s="5"/>
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
-      <c r="P122" s="4" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="123" spans="1:16" s="4" customFormat="1">
       <c r="A123" s="7"/>
@@ -4943,7 +5003,7 @@
       <c r="D123" s="7"/>
       <c r="E123" s="12"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="13"/>
+      <c r="G123" s="28"/>
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
       <c r="J123" s="5"/>
@@ -4952,9 +5012,6 @@
       <c r="M123" s="5"/>
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
-      <c r="P123" s="4" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="124" spans="1:16" s="4" customFormat="1">
       <c r="A124" s="7"/>
@@ -4963,7 +5020,7 @@
       <c r="D124" s="7"/>
       <c r="E124" s="12"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="13"/>
+      <c r="G124" s="28"/>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="5"/>
@@ -4972,9 +5029,6 @@
       <c r="M124" s="5"/>
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
-      <c r="P124" s="4" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="125" spans="1:16" s="4" customFormat="1">
       <c r="A125" s="7"/>
@@ -4983,7 +5037,7 @@
       <c r="D125" s="7"/>
       <c r="E125" s="12"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="13"/>
+      <c r="G125" s="28"/>
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
       <c r="J125" s="5"/>
@@ -4992,9 +5046,6 @@
       <c r="M125" s="5"/>
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
-      <c r="P125" s="4" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="126" spans="1:16" s="4" customFormat="1">
       <c r="A126" s="7"/>
@@ -5003,7 +5054,7 @@
       <c r="D126" s="7"/>
       <c r="E126" s="12"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="13"/>
+      <c r="G126" s="28"/>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="5"/>
@@ -5012,9 +5063,6 @@
       <c r="M126" s="5"/>
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
-      <c r="P126" s="4" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="127" spans="1:16" s="4" customFormat="1">
       <c r="A127" s="7"/>
@@ -5023,7 +5071,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="12"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="13"/>
+      <c r="G127" s="28"/>
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
       <c r="J127" s="5"/>
@@ -5032,9 +5080,6 @@
       <c r="M127" s="5"/>
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
-      <c r="P127" s="4" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="128" spans="1:16" s="4" customFormat="1">
       <c r="A128" s="7"/>
@@ -5043,7 +5088,7 @@
       <c r="D128" s="7"/>
       <c r="E128" s="12"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="13"/>
+      <c r="G128" s="28"/>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="5"/>
@@ -5060,7 +5105,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="12"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="13"/>
+      <c r="G129" s="28"/>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
       <c r="J129" s="5"/>
@@ -5077,7 +5122,7 @@
       <c r="D130" s="7"/>
       <c r="E130" s="12"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="13"/>
+      <c r="G130" s="28"/>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="5"/>
@@ -5094,7 +5139,7 @@
       <c r="D131" s="7"/>
       <c r="E131" s="12"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="13"/>
+      <c r="G131" s="28"/>
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
       <c r="J131" s="5"/>
@@ -5111,7 +5156,7 @@
       <c r="D132" s="7"/>
       <c r="E132" s="12"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="13"/>
+      <c r="G132" s="28"/>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
       <c r="J132" s="5"/>
@@ -5128,7 +5173,7 @@
       <c r="D133" s="7"/>
       <c r="E133" s="12"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="13"/>
+      <c r="G133" s="28"/>
       <c r="H133" s="13"/>
       <c r="I133" s="13"/>
       <c r="J133" s="5"/>
@@ -5145,7 +5190,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="12"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="13"/>
+      <c r="G134" s="28"/>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
       <c r="J134" s="5"/>
@@ -5162,7 +5207,7 @@
       <c r="D135" s="7"/>
       <c r="E135" s="12"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="13"/>
+      <c r="G135" s="28"/>
       <c r="H135" s="13"/>
       <c r="I135" s="13"/>
       <c r="J135" s="5"/>
@@ -5179,7 +5224,7 @@
       <c r="D136" s="7"/>
       <c r="E136" s="12"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="13"/>
+      <c r="G136" s="28"/>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
       <c r="J136" s="5"/>
@@ -5196,7 +5241,7 @@
       <c r="D137" s="7"/>
       <c r="E137" s="12"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="13"/>
+      <c r="G137" s="28"/>
       <c r="H137" s="13"/>
       <c r="I137" s="13"/>
       <c r="J137" s="5"/>
@@ -5213,7 +5258,7 @@
       <c r="D138" s="7"/>
       <c r="E138" s="12"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="13"/>
+      <c r="G138" s="28"/>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
       <c r="J138" s="5"/>
@@ -5230,7 +5275,7 @@
       <c r="D139" s="7"/>
       <c r="E139" s="12"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="13"/>
+      <c r="G139" s="28"/>
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
       <c r="J139" s="5"/>
@@ -5247,7 +5292,7 @@
       <c r="D140" s="7"/>
       <c r="E140" s="12"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="13"/>
+      <c r="G140" s="28"/>
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
       <c r="J140" s="5"/>
@@ -5264,7 +5309,7 @@
       <c r="D141" s="7"/>
       <c r="E141" s="12"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="13"/>
+      <c r="G141" s="28"/>
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
       <c r="J141" s="5"/>
@@ -5281,7 +5326,7 @@
       <c r="D142" s="7"/>
       <c r="E142" s="12"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="13"/>
+      <c r="G142" s="28"/>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
       <c r="J142" s="5"/>
@@ -5298,7 +5343,7 @@
       <c r="D143" s="7"/>
       <c r="E143" s="12"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="13"/>
+      <c r="G143" s="28"/>
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
       <c r="J143" s="5"/>
@@ -5315,7 +5360,7 @@
       <c r="D144" s="7"/>
       <c r="E144" s="12"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="13"/>
+      <c r="G144" s="28"/>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
       <c r="J144" s="5"/>
@@ -5332,7 +5377,7 @@
       <c r="D145" s="7"/>
       <c r="E145" s="12"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="13"/>
+      <c r="G145" s="28"/>
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
       <c r="J145" s="5"/>
@@ -5349,7 +5394,7 @@
       <c r="D146" s="7"/>
       <c r="E146" s="12"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="13"/>
+      <c r="G146" s="28"/>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
       <c r="J146" s="5"/>
@@ -5366,7 +5411,7 @@
       <c r="D147" s="7"/>
       <c r="E147" s="12"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="13"/>
+      <c r="G147" s="28"/>
       <c r="H147" s="13"/>
       <c r="I147" s="13"/>
       <c r="J147" s="5"/>
@@ -5383,7 +5428,7 @@
       <c r="D148" s="7"/>
       <c r="E148" s="12"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="13"/>
+      <c r="G148" s="28"/>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
       <c r="J148" s="5"/>
@@ -5400,7 +5445,7 @@
       <c r="D149" s="7"/>
       <c r="E149" s="12"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="13"/>
+      <c r="G149" s="28"/>
       <c r="H149" s="13"/>
       <c r="I149" s="13"/>
       <c r="J149" s="5"/>
@@ -5417,7 +5462,7 @@
       <c r="D150" s="7"/>
       <c r="E150" s="12"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="13"/>
+      <c r="G150" s="28"/>
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
       <c r="J150" s="5"/>
@@ -5434,7 +5479,7 @@
       <c r="D151" s="7"/>
       <c r="E151" s="12"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="13"/>
+      <c r="G151" s="28"/>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
       <c r="J151" s="5"/>
@@ -5451,7 +5496,7 @@
       <c r="D152" s="7"/>
       <c r="E152" s="12"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="13"/>
+      <c r="G152" s="28"/>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="5"/>
@@ -5468,7 +5513,7 @@
       <c r="D153" s="7"/>
       <c r="E153" s="12"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="13"/>
+      <c r="G153" s="28"/>
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
       <c r="J153" s="5"/>
@@ -5485,7 +5530,7 @@
       <c r="D154" s="7"/>
       <c r="E154" s="12"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="13"/>
+      <c r="G154" s="28"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
       <c r="J154" s="5"/>
@@ -5502,7 +5547,7 @@
       <c r="D155" s="7"/>
       <c r="E155" s="12"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="13"/>
+      <c r="G155" s="28"/>
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
       <c r="J155" s="5"/>
@@ -5519,7 +5564,7 @@
       <c r="D156" s="7"/>
       <c r="E156" s="12"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="13"/>
+      <c r="G156" s="28"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
       <c r="J156" s="5"/>
@@ -5536,7 +5581,7 @@
       <c r="D157" s="7"/>
       <c r="E157" s="12"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="13"/>
+      <c r="G157" s="28"/>
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
       <c r="J157" s="5"/>
@@ -5553,7 +5598,7 @@
       <c r="D158" s="7"/>
       <c r="E158" s="12"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="13"/>
+      <c r="G158" s="28"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
       <c r="J158" s="5"/>
@@ -5570,7 +5615,7 @@
       <c r="D159" s="7"/>
       <c r="E159" s="12"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="13"/>
+      <c r="G159" s="28"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
       <c r="J159" s="5"/>
@@ -5587,7 +5632,7 @@
       <c r="D160" s="7"/>
       <c r="E160" s="12"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="13"/>
+      <c r="G160" s="28"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="5"/>
@@ -5604,7 +5649,7 @@
       <c r="D161" s="7"/>
       <c r="E161" s="12"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="13"/>
+      <c r="G161" s="28"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
       <c r="J161" s="5"/>
@@ -5621,7 +5666,7 @@
       <c r="D162" s="7"/>
       <c r="E162" s="12"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="13"/>
+      <c r="G162" s="28"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="5"/>
@@ -5638,7 +5683,7 @@
       <c r="D163" s="7"/>
       <c r="E163" s="12"/>
       <c r="F163" s="5"/>
-      <c r="G163" s="13"/>
+      <c r="G163" s="28"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
       <c r="J163" s="5"/>
@@ -5655,7 +5700,7 @@
       <c r="D164" s="7"/>
       <c r="E164" s="12"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="13"/>
+      <c r="G164" s="28"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="5"/>
@@ -5672,7 +5717,7 @@
       <c r="D165" s="7"/>
       <c r="E165" s="12"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="13"/>
+      <c r="G165" s="28"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
       <c r="J165" s="5"/>
@@ -5689,7 +5734,7 @@
       <c r="D166" s="7"/>
       <c r="E166" s="12"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="13"/>
+      <c r="G166" s="28"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="5"/>
@@ -5706,7 +5751,7 @@
       <c r="D167" s="7"/>
       <c r="E167" s="12"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="13"/>
+      <c r="G167" s="28"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
       <c r="J167" s="5"/>
@@ -5723,7 +5768,7 @@
       <c r="D168" s="7"/>
       <c r="E168" s="12"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="13"/>
+      <c r="G168" s="28"/>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
       <c r="J168" s="5"/>
@@ -5740,7 +5785,7 @@
       <c r="D169" s="7"/>
       <c r="E169" s="12"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="13"/>
+      <c r="G169" s="28"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
       <c r="J169" s="5"/>
@@ -5757,7 +5802,7 @@
       <c r="D170" s="7"/>
       <c r="E170" s="12"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="13"/>
+      <c r="G170" s="28"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
       <c r="J170" s="5"/>
@@ -5774,7 +5819,7 @@
       <c r="D171" s="7"/>
       <c r="E171" s="12"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="13"/>
+      <c r="G171" s="28"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
       <c r="J171" s="5"/>
@@ -5791,7 +5836,7 @@
       <c r="D172" s="7"/>
       <c r="E172" s="12"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="13"/>
+      <c r="G172" s="28"/>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
       <c r="J172" s="5"/>
@@ -5808,7 +5853,7 @@
       <c r="D173" s="7"/>
       <c r="E173" s="12"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="13"/>
+      <c r="G173" s="28"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
       <c r="J173" s="5"/>
@@ -5825,7 +5870,7 @@
       <c r="D174" s="7"/>
       <c r="E174" s="12"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="13"/>
+      <c r="G174" s="28"/>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
       <c r="J174" s="5"/>
@@ -5842,7 +5887,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="12"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="13"/>
+      <c r="G175" s="28"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
       <c r="J175" s="5"/>
@@ -5859,7 +5904,7 @@
       <c r="D176" s="7"/>
       <c r="E176" s="12"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="13"/>
+      <c r="G176" s="28"/>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
       <c r="J176" s="5"/>
@@ -5876,7 +5921,7 @@
       <c r="D177" s="7"/>
       <c r="E177" s="12"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="13"/>
+      <c r="G177" s="28"/>
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
       <c r="J177" s="5"/>
@@ -5893,7 +5938,7 @@
       <c r="D178" s="7"/>
       <c r="E178" s="12"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="13"/>
+      <c r="G178" s="28"/>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="5"/>
@@ -5910,7 +5955,7 @@
       <c r="D179" s="7"/>
       <c r="E179" s="12"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="13"/>
+      <c r="G179" s="28"/>
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
       <c r="J179" s="5"/>
@@ -5927,7 +5972,7 @@
       <c r="D180" s="7"/>
       <c r="E180" s="12"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="13"/>
+      <c r="G180" s="28"/>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="5"/>
@@ -5944,7 +5989,7 @@
       <c r="D181" s="7"/>
       <c r="E181" s="12"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="13"/>
+      <c r="G181" s="28"/>
       <c r="H181" s="13"/>
       <c r="I181" s="13"/>
       <c r="J181" s="5"/>
@@ -5961,7 +6006,7 @@
       <c r="D182" s="7"/>
       <c r="E182" s="12"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="13"/>
+      <c r="G182" s="28"/>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
       <c r="J182" s="5"/>
@@ -5978,7 +6023,7 @@
       <c r="D183" s="7"/>
       <c r="E183" s="12"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="13"/>
+      <c r="G183" s="28"/>
       <c r="H183" s="13"/>
       <c r="I183" s="13"/>
       <c r="J183" s="5"/>
@@ -5995,7 +6040,7 @@
       <c r="D184" s="7"/>
       <c r="E184" s="12"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="13"/>
+      <c r="G184" s="28"/>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
       <c r="J184" s="5"/>
@@ -6012,7 +6057,7 @@
       <c r="D185" s="7"/>
       <c r="E185" s="12"/>
       <c r="F185" s="5"/>
-      <c r="G185" s="13"/>
+      <c r="G185" s="28"/>
       <c r="H185" s="13"/>
       <c r="I185" s="13"/>
       <c r="J185" s="5"/>
@@ -6029,7 +6074,7 @@
       <c r="D186" s="7"/>
       <c r="E186" s="12"/>
       <c r="F186" s="5"/>
-      <c r="G186" s="13"/>
+      <c r="G186" s="28"/>
       <c r="H186" s="13"/>
       <c r="I186" s="13"/>
       <c r="J186" s="5"/>
@@ -6046,7 +6091,7 @@
       <c r="D187" s="7"/>
       <c r="E187" s="12"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="13"/>
+      <c r="G187" s="28"/>
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
       <c r="J187" s="5"/>
@@ -6063,7 +6108,7 @@
       <c r="D188" s="7"/>
       <c r="E188" s="12"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="13"/>
+      <c r="G188" s="28"/>
       <c r="H188" s="13"/>
       <c r="I188" s="13"/>
       <c r="J188" s="5"/>
@@ -6080,7 +6125,7 @@
       <c r="D189" s="7"/>
       <c r="E189" s="12"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="13"/>
+      <c r="G189" s="28"/>
       <c r="H189" s="13"/>
       <c r="I189" s="13"/>
       <c r="J189" s="5"/>
@@ -6097,7 +6142,7 @@
       <c r="D190" s="7"/>
       <c r="E190" s="12"/>
       <c r="F190" s="5"/>
-      <c r="G190" s="13"/>
+      <c r="G190" s="28"/>
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
       <c r="J190" s="5"/>
@@ -6114,7 +6159,7 @@
       <c r="D191" s="7"/>
       <c r="E191" s="12"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="13"/>
+      <c r="G191" s="28"/>
       <c r="H191" s="13"/>
       <c r="I191" s="13"/>
       <c r="J191" s="5"/>
@@ -6131,7 +6176,7 @@
       <c r="D192" s="7"/>
       <c r="E192" s="12"/>
       <c r="F192" s="5"/>
-      <c r="G192" s="13"/>
+      <c r="G192" s="28"/>
       <c r="H192" s="13"/>
       <c r="I192" s="13"/>
       <c r="J192" s="5"/>
@@ -6148,7 +6193,7 @@
       <c r="D193" s="7"/>
       <c r="E193" s="12"/>
       <c r="F193" s="5"/>
-      <c r="G193" s="13"/>
+      <c r="G193" s="28"/>
       <c r="H193" s="13"/>
       <c r="I193" s="13"/>
       <c r="J193" s="5"/>
@@ -6165,7 +6210,7 @@
       <c r="D194" s="7"/>
       <c r="E194" s="12"/>
       <c r="F194" s="5"/>
-      <c r="G194" s="13"/>
+      <c r="G194" s="28"/>
       <c r="H194" s="13"/>
       <c r="I194" s="13"/>
       <c r="J194" s="5"/>
@@ -6182,7 +6227,7 @@
       <c r="D195" s="7"/>
       <c r="E195" s="12"/>
       <c r="F195" s="5"/>
-      <c r="G195" s="13"/>
+      <c r="G195" s="28"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
       <c r="J195" s="5"/>
@@ -6199,7 +6244,7 @@
       <c r="D196" s="7"/>
       <c r="E196" s="12"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="13"/>
+      <c r="G196" s="28"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
       <c r="J196" s="5"/>
@@ -6216,7 +6261,7 @@
       <c r="D197" s="7"/>
       <c r="E197" s="12"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="13"/>
+      <c r="G197" s="28"/>
       <c r="H197" s="13"/>
       <c r="I197" s="13"/>
       <c r="J197" s="5"/>
@@ -6233,7 +6278,7 @@
       <c r="D198" s="7"/>
       <c r="E198" s="12"/>
       <c r="F198" s="5"/>
-      <c r="G198" s="13"/>
+      <c r="G198" s="28"/>
       <c r="H198" s="13"/>
       <c r="I198" s="13"/>
       <c r="J198" s="5"/>
@@ -6250,7 +6295,7 @@
       <c r="D199" s="7"/>
       <c r="E199" s="12"/>
       <c r="F199" s="5"/>
-      <c r="G199" s="13"/>
+      <c r="G199" s="28"/>
       <c r="H199" s="13"/>
       <c r="I199" s="13"/>
       <c r="J199" s="5"/>
@@ -6267,7 +6312,7 @@
       <c r="D200" s="7"/>
       <c r="E200" s="12"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="13"/>
+      <c r="G200" s="28"/>
       <c r="H200" s="13"/>
       <c r="I200" s="13"/>
       <c r="J200" s="5"/>
@@ -6284,7 +6329,7 @@
       <c r="D201" s="7"/>
       <c r="E201" s="12"/>
       <c r="F201" s="5"/>
-      <c r="G201" s="13"/>
+      <c r="G201" s="28"/>
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>
       <c r="J201" s="5"/>
@@ -6301,7 +6346,7 @@
       <c r="D202" s="7"/>
       <c r="E202" s="12"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="13"/>
+      <c r="G202" s="28"/>
       <c r="H202" s="13"/>
       <c r="I202" s="13"/>
       <c r="J202" s="5"/>
@@ -6318,7 +6363,7 @@
       <c r="D203" s="7"/>
       <c r="E203" s="12"/>
       <c r="F203" s="5"/>
-      <c r="G203" s="13"/>
+      <c r="G203" s="28"/>
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
       <c r="J203" s="5"/>
@@ -6335,7 +6380,7 @@
       <c r="D204" s="7"/>
       <c r="E204" s="12"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="13"/>
+      <c r="G204" s="28"/>
       <c r="H204" s="13"/>
       <c r="I204" s="13"/>
       <c r="J204" s="5"/>
@@ -6352,7 +6397,7 @@
       <c r="D205" s="7"/>
       <c r="E205" s="12"/>
       <c r="F205" s="5"/>
-      <c r="G205" s="13"/>
+      <c r="G205" s="28"/>
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
       <c r="J205" s="5"/>
@@ -6369,7 +6414,7 @@
       <c r="D206" s="7"/>
       <c r="E206" s="12"/>
       <c r="F206" s="5"/>
-      <c r="G206" s="13"/>
+      <c r="G206" s="28"/>
       <c r="H206" s="13"/>
       <c r="I206" s="13"/>
       <c r="J206" s="5"/>
@@ -6386,7 +6431,7 @@
       <c r="D207" s="7"/>
       <c r="E207" s="12"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="13"/>
+      <c r="G207" s="28"/>
       <c r="H207" s="13"/>
       <c r="I207" s="13"/>
       <c r="J207" s="5"/>
@@ -6403,7 +6448,7 @@
       <c r="D208" s="7"/>
       <c r="E208" s="12"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="13"/>
+      <c r="G208" s="28"/>
       <c r="H208" s="13"/>
       <c r="I208" s="13"/>
       <c r="J208" s="5"/>
@@ -6420,7 +6465,7 @@
       <c r="D209" s="7"/>
       <c r="E209" s="12"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="13"/>
+      <c r="G209" s="28"/>
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
       <c r="J209" s="5"/>
@@ -6437,7 +6482,7 @@
       <c r="D210" s="7"/>
       <c r="E210" s="12"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="13"/>
+      <c r="G210" s="28"/>
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
       <c r="J210" s="5"/>
@@ -6454,7 +6499,7 @@
       <c r="D211" s="7"/>
       <c r="E211" s="12"/>
       <c r="F211" s="5"/>
-      <c r="G211" s="13"/>
+      <c r="G211" s="28"/>
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
       <c r="J211" s="5"/>
@@ -6471,7 +6516,7 @@
       <c r="D212" s="7"/>
       <c r="E212" s="12"/>
       <c r="F212" s="5"/>
-      <c r="G212" s="13"/>
+      <c r="G212" s="28"/>
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
       <c r="J212" s="5"/>
@@ -6488,7 +6533,7 @@
       <c r="D213" s="7"/>
       <c r="E213" s="12"/>
       <c r="F213" s="5"/>
-      <c r="G213" s="13"/>
+      <c r="G213" s="28"/>
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
       <c r="J213" s="5"/>
@@ -6505,7 +6550,7 @@
       <c r="D214" s="7"/>
       <c r="E214" s="12"/>
       <c r="F214" s="5"/>
-      <c r="G214" s="13"/>
+      <c r="G214" s="28"/>
       <c r="H214" s="13"/>
       <c r="I214" s="13"/>
       <c r="J214" s="5"/>
@@ -6522,7 +6567,7 @@
       <c r="D215" s="7"/>
       <c r="E215" s="12"/>
       <c r="F215" s="5"/>
-      <c r="G215" s="13"/>
+      <c r="G215" s="28"/>
       <c r="H215" s="13"/>
       <c r="I215" s="13"/>
       <c r="J215" s="5"/>
@@ -6539,7 +6584,7 @@
       <c r="D216" s="7"/>
       <c r="E216" s="12"/>
       <c r="F216" s="5"/>
-      <c r="G216" s="13"/>
+      <c r="G216" s="28"/>
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
       <c r="J216" s="5"/>
@@ -6556,7 +6601,7 @@
       <c r="D217" s="7"/>
       <c r="E217" s="12"/>
       <c r="F217" s="5"/>
-      <c r="G217" s="13"/>
+      <c r="G217" s="28"/>
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
       <c r="J217" s="5"/>
@@ -6573,7 +6618,7 @@
       <c r="D218" s="7"/>
       <c r="E218" s="12"/>
       <c r="F218" s="5"/>
-      <c r="G218" s="13"/>
+      <c r="G218" s="28"/>
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
       <c r="J218" s="5"/>
@@ -6590,7 +6635,7 @@
       <c r="D219" s="7"/>
       <c r="E219" s="12"/>
       <c r="F219" s="5"/>
-      <c r="G219" s="13"/>
+      <c r="G219" s="28"/>
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
       <c r="J219" s="5"/>
@@ -6607,7 +6652,7 @@
       <c r="D220" s="7"/>
       <c r="E220" s="12"/>
       <c r="F220" s="5"/>
-      <c r="G220" s="13"/>
+      <c r="G220" s="28"/>
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
       <c r="J220" s="5"/>
@@ -6617,251 +6662,13 @@
       <c r="N220" s="13"/>
       <c r="O220" s="13"/>
     </row>
-    <row r="221" spans="1:15" s="4" customFormat="1">
-      <c r="A221" s="7"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="13"/>
-      <c r="H221" s="13"/>
-      <c r="I221" s="13"/>
-      <c r="J221" s="5"/>
-      <c r="K221" s="5"/>
-      <c r="L221" s="5"/>
-      <c r="M221" s="5"/>
-      <c r="N221" s="13"/>
-      <c r="O221" s="13"/>
-    </row>
-    <row r="222" spans="1:15" s="4" customFormat="1">
-      <c r="A222" s="7"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="5"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="13"/>
-      <c r="H222" s="13"/>
-      <c r="I222" s="13"/>
-      <c r="J222" s="5"/>
-      <c r="K222" s="5"/>
-      <c r="L222" s="5"/>
-      <c r="M222" s="5"/>
-      <c r="N222" s="13"/>
-      <c r="O222" s="13"/>
-    </row>
-    <row r="223" spans="1:15" s="4" customFormat="1">
-      <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="13"/>
-      <c r="H223" s="13"/>
-      <c r="I223" s="13"/>
-      <c r="J223" s="5"/>
-      <c r="K223" s="5"/>
-      <c r="L223" s="5"/>
-      <c r="M223" s="5"/>
-      <c r="N223" s="13"/>
-      <c r="O223" s="13"/>
-    </row>
-    <row r="224" spans="1:15" s="4" customFormat="1">
-      <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="5"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="13"/>
-      <c r="H224" s="13"/>
-      <c r="I224" s="13"/>
-      <c r="J224" s="5"/>
-      <c r="K224" s="5"/>
-      <c r="L224" s="5"/>
-      <c r="M224" s="5"/>
-      <c r="N224" s="13"/>
-      <c r="O224" s="13"/>
-    </row>
-    <row r="225" spans="1:15" s="4" customFormat="1">
-      <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="5"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="12"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="13"/>
-      <c r="H225" s="13"/>
-      <c r="I225" s="13"/>
-      <c r="J225" s="5"/>
-      <c r="K225" s="5"/>
-      <c r="L225" s="5"/>
-      <c r="M225" s="5"/>
-      <c r="N225" s="13"/>
-      <c r="O225" s="13"/>
-    </row>
-    <row r="226" spans="1:15" s="4" customFormat="1">
-      <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="5"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="13"/>
-      <c r="H226" s="13"/>
-      <c r="I226" s="13"/>
-      <c r="J226" s="5"/>
-      <c r="K226" s="5"/>
-      <c r="L226" s="5"/>
-      <c r="M226" s="5"/>
-      <c r="N226" s="13"/>
-      <c r="O226" s="13"/>
-    </row>
-    <row r="227" spans="1:15" s="4" customFormat="1">
-      <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="13"/>
-      <c r="H227" s="13"/>
-      <c r="I227" s="13"/>
-      <c r="J227" s="5"/>
-      <c r="K227" s="5"/>
-      <c r="L227" s="5"/>
-      <c r="M227" s="5"/>
-      <c r="N227" s="13"/>
-      <c r="O227" s="13"/>
-    </row>
-    <row r="228" spans="1:15" s="4" customFormat="1">
-      <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="13"/>
-      <c r="H228" s="13"/>
-      <c r="I228" s="13"/>
-      <c r="J228" s="5"/>
-      <c r="K228" s="5"/>
-      <c r="L228" s="5"/>
-      <c r="M228" s="5"/>
-      <c r="N228" s="13"/>
-      <c r="O228" s="13"/>
-    </row>
-    <row r="229" spans="1:15" s="4" customFormat="1">
-      <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="12"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="13"/>
-      <c r="H229" s="13"/>
-      <c r="I229" s="13"/>
-      <c r="J229" s="5"/>
-      <c r="K229" s="5"/>
-      <c r="L229" s="5"/>
-      <c r="M229" s="5"/>
-      <c r="N229" s="13"/>
-      <c r="O229" s="13"/>
-    </row>
-    <row r="230" spans="1:15" s="4" customFormat="1">
-      <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="13"/>
-      <c r="H230" s="13"/>
-      <c r="I230" s="13"/>
-      <c r="J230" s="5"/>
-      <c r="K230" s="5"/>
-      <c r="L230" s="5"/>
-      <c r="M230" s="5"/>
-      <c r="N230" s="13"/>
-      <c r="O230" s="13"/>
-    </row>
-    <row r="231" spans="1:15" s="4" customFormat="1">
-      <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="12"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="13"/>
-      <c r="H231" s="13"/>
-      <c r="I231" s="13"/>
-      <c r="J231" s="5"/>
-      <c r="K231" s="5"/>
-      <c r="L231" s="5"/>
-      <c r="M231" s="5"/>
-      <c r="N231" s="13"/>
-      <c r="O231" s="13"/>
-    </row>
-    <row r="232" spans="1:15" s="4" customFormat="1">
-      <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="13"/>
-      <c r="H232" s="13"/>
-      <c r="I232" s="13"/>
-      <c r="J232" s="5"/>
-      <c r="K232" s="5"/>
-      <c r="L232" s="5"/>
-      <c r="M232" s="5"/>
-      <c r="N232" s="13"/>
-      <c r="O232" s="13"/>
-    </row>
-    <row r="233" spans="1:15" s="4" customFormat="1">
-      <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="12"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="13"/>
-      <c r="H233" s="13"/>
-      <c r="I233" s="13"/>
-      <c r="J233" s="5"/>
-      <c r="K233" s="5"/>
-      <c r="L233" s="5"/>
-      <c r="M233" s="5"/>
-      <c r="N233" s="13"/>
-      <c r="O233" s="13"/>
-    </row>
-    <row r="234" spans="1:15" s="4" customFormat="1">
-      <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
-      <c r="C234" s="5"/>
-      <c r="D234" s="7"/>
-      <c r="E234" s="12"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="13"/>
-      <c r="H234" s="13"/>
-      <c r="I234" s="13"/>
-      <c r="J234" s="5"/>
-      <c r="K234" s="5"/>
-      <c r="L234" s="5"/>
-      <c r="M234" s="5"/>
-      <c r="N234" s="13"/>
-      <c r="O234" s="13"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" sqref="F8:F234">
+    <dataValidation type="list" sqref="F13:F220">
       <formula1>P$1:P$7</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E2:E7">
-      <formula1>O$1:O$133</formula1>
+    <dataValidation type="list" sqref="E2:E12">
+      <formula1>O$1:O$119</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resources/Total_Qty_Calculation.xlsx
+++ b/Resources/Total_Qty_Calculation.xlsx
@@ -2267,7 +2267,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2278,7 +2278,7 @@
   <dimension ref="A1:Q220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
